--- a/tabs/household_precariousness.xlsx
+++ b/tabs/household_precariousness.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z366"/>
+  <dimension ref="A1:Z311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24730,3550 +24730,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="B312">
-        <v>2022</v>
-      </c>
-      <c r="H312">
-        <v>75.13993493769729</v>
-      </c>
-      <c r="I312">
-        <v>20.9518675102952</v>
-      </c>
-      <c r="J312">
-        <v>3.579447904986154</v>
-      </c>
-      <c r="K312">
-        <v>0.3287496470214524</v>
-      </c>
-      <c r="L312">
-        <v>10.25376033354496</v>
-      </c>
-      <c r="M312">
-        <v>3.785682922474064</v>
-      </c>
-      <c r="N312">
-        <v>2.219240738443754</v>
-      </c>
-      <c r="O312">
-        <v>2.644985881881483</v>
-      </c>
-      <c r="P312">
-        <v>15.0550582409856</v>
-      </c>
-      <c r="R312">
-        <v>3.190381448121809</v>
-      </c>
-      <c r="S312">
-        <v>12.63908312738945</v>
-      </c>
-      <c r="U312">
-        <v>0</v>
-      </c>
-      <c r="V312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="B313">
-        <v>2022</v>
-      </c>
-      <c r="H313">
-        <v>78.57985635452103</v>
-      </c>
-      <c r="I313">
-        <v>17.19292316111098</v>
-      </c>
-      <c r="J313">
-        <v>3.692779376425023</v>
-      </c>
-      <c r="K313">
-        <v>0.5344411079429844</v>
-      </c>
-      <c r="L313">
-        <v>12.85814827047543</v>
-      </c>
-      <c r="M313">
-        <v>3.906506777454394</v>
-      </c>
-      <c r="N313">
-        <v>1.957774752905874</v>
-      </c>
-      <c r="O313">
-        <v>3.042356078852915</v>
-      </c>
-      <c r="P313">
-        <v>9.415203701761849</v>
-      </c>
-      <c r="R313">
-        <v>5.276003119114233</v>
-      </c>
-      <c r="S313">
-        <v>4.720360745689372</v>
-      </c>
-      <c r="U313">
-        <v>0</v>
-      </c>
-      <c r="V313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="B314">
-        <v>2022</v>
-      </c>
-      <c r="H314">
-        <v>41.36655142041215</v>
-      </c>
-      <c r="I314">
-        <v>38.85141435955492</v>
-      </c>
-      <c r="J314">
-        <v>15.90919145007119</v>
-      </c>
-      <c r="K314">
-        <v>3.87284276996135</v>
-      </c>
-      <c r="L314">
-        <v>21.14714344869394</v>
-      </c>
-      <c r="M314">
-        <v>18.54341396839801</v>
-      </c>
-      <c r="N314">
-        <v>0.8514879014801863</v>
-      </c>
-      <c r="O314">
-        <v>18.37826188178347</v>
-      </c>
-      <c r="P314">
-        <v>42.59776815248938</v>
-      </c>
-      <c r="R314">
-        <v>24.52745727194445</v>
-      </c>
-      <c r="S314">
-        <v>24.92365151961154</v>
-      </c>
-      <c r="U314">
-        <v>0</v>
-      </c>
-      <c r="V314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>CY</t>
-        </is>
-      </c>
-      <c r="B315">
-        <v>2022</v>
-      </c>
-      <c r="H315">
-        <v>77.34583444885652</v>
-      </c>
-      <c r="I315">
-        <v>13.31265025858559</v>
-      </c>
-      <c r="J315">
-        <v>8.499181908627644</v>
-      </c>
-      <c r="K315">
-        <v>0.8423333839305136</v>
-      </c>
-      <c r="L315">
-        <v>4.199134306942684</v>
-      </c>
-      <c r="M315">
-        <v>9.42397453528744</v>
-      </c>
-      <c r="N315">
-        <v>4.014405382188635</v>
-      </c>
-      <c r="O315">
-        <v>7.126613577011424</v>
-      </c>
-      <c r="P315">
-        <v>19.21490538540227</v>
-      </c>
-      <c r="R315">
-        <v>18.65530026143211</v>
-      </c>
-      <c r="S315">
-        <v>1.442975851808775</v>
-      </c>
-      <c r="U315">
-        <v>0</v>
-      </c>
-      <c r="V315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>CZ</t>
-        </is>
-      </c>
-      <c r="B316">
-        <v>2022</v>
-      </c>
-      <c r="H316">
-        <v>75.7635559150126</v>
-      </c>
-      <c r="I316">
-        <v>20.52471329384297</v>
-      </c>
-      <c r="J316">
-        <v>3.356296587764867</v>
-      </c>
-      <c r="K316">
-        <v>0.3554342033790739</v>
-      </c>
-      <c r="L316">
-        <v>11.10458026678494</v>
-      </c>
-      <c r="M316">
-        <v>2.180717396395705</v>
-      </c>
-      <c r="N316">
-        <v>1.348631977350465</v>
-      </c>
-      <c r="O316">
-        <v>1.74271152142861</v>
-      </c>
-      <c r="P316">
-        <v>15.01831141632932</v>
-      </c>
-      <c r="R316">
-        <v>3.40842804549984</v>
-      </c>
-      <c r="S316">
-        <v>12.12962136794795</v>
-      </c>
-      <c r="U316">
-        <v>0</v>
-      </c>
-      <c r="V316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="B317">
-        <v>2022</v>
-      </c>
-      <c r="H317">
-        <v>70.023882622584</v>
-      </c>
-      <c r="I317">
-        <v>24.6304677392021</v>
-      </c>
-      <c r="J317">
-        <v>4.870952647085544</v>
-      </c>
-      <c r="K317">
-        <v>0.4746969911288033</v>
-      </c>
-      <c r="L317">
-        <v>16.6184342267004</v>
-      </c>
-      <c r="M317">
-        <v>4.691485176432148</v>
-      </c>
-      <c r="N317">
-        <v>1.88303753897963</v>
-      </c>
-      <c r="O317">
-        <v>3.881678833828613</v>
-      </c>
-      <c r="P317">
-        <v>15.03852758815162</v>
-      </c>
-      <c r="R317">
-        <v>6.532359422024802</v>
-      </c>
-      <c r="S317">
-        <v>9.540718244761745</v>
-      </c>
-      <c r="U317">
-        <v>0</v>
-      </c>
-      <c r="V317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="B318">
-        <v>2022</v>
-      </c>
-      <c r="H318">
-        <v>63.47721205963557</v>
-      </c>
-      <c r="I318">
-        <v>27.69687883463368</v>
-      </c>
-      <c r="J318">
-        <v>7.633377546539021</v>
-      </c>
-      <c r="K318">
-        <v>1.192531559191685</v>
-      </c>
-      <c r="L318">
-        <v>27.21761078775392</v>
-      </c>
-      <c r="M318">
-        <v>4.503192595207276</v>
-      </c>
-      <c r="N318">
-        <v>2.037864522566192</v>
-      </c>
-      <c r="O318">
-        <v>3.662687287574383</v>
-      </c>
-      <c r="P318">
-        <v>14.82846890445353</v>
-      </c>
-      <c r="R318">
-        <v>6.303850641436077</v>
-      </c>
-      <c r="S318">
-        <v>9.068049525092462</v>
-      </c>
-      <c r="U318">
-        <v>0</v>
-      </c>
-      <c r="V318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>EE</t>
-        </is>
-      </c>
-      <c r="B319">
-        <v>2022</v>
-      </c>
-      <c r="H319">
-        <v>75.16457156915125</v>
-      </c>
-      <c r="I319">
-        <v>20.6727187920098</v>
-      </c>
-      <c r="J319">
-        <v>3.758271614483184</v>
-      </c>
-      <c r="K319">
-        <v>0.4044380243559841</v>
-      </c>
-      <c r="L319">
-        <v>7.804124797007909</v>
-      </c>
-      <c r="M319">
-        <v>5.027640886906665</v>
-      </c>
-      <c r="N319">
-        <v>1.297181703041717</v>
-      </c>
-      <c r="O319">
-        <v>4.322283556242701</v>
-      </c>
-      <c r="P319">
-        <v>16.57081041012956</v>
-      </c>
-      <c r="R319">
-        <v>4.13530787749002</v>
-      </c>
-      <c r="S319">
-        <v>13.41384262394859</v>
-      </c>
-      <c r="U319">
-        <v>0</v>
-      </c>
-      <c r="V319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="B320">
-        <v>2022</v>
-      </c>
-      <c r="H320">
-        <v>36.60182467645917</v>
-      </c>
-      <c r="I320">
-        <v>34.27077846133329</v>
-      </c>
-      <c r="J320">
-        <v>21.16491267786852</v>
-      </c>
-      <c r="K320">
-        <v>7.962484184338405</v>
-      </c>
-      <c r="L320">
-        <v>32.74185802111823</v>
-      </c>
-      <c r="M320">
-        <v>33.45901759969297</v>
-      </c>
-      <c r="N320">
-        <v>8.403037550615094</v>
-      </c>
-      <c r="O320">
-        <v>31.60780163415662</v>
-      </c>
-      <c r="P320">
-        <v>34.28718074927433</v>
-      </c>
-      <c r="R320">
-        <v>20.22638589151711</v>
-      </c>
-      <c r="S320">
-        <v>19.13256289205034</v>
-      </c>
-      <c r="U320">
-        <v>0</v>
-      </c>
-      <c r="V320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="B321">
-        <v>2022</v>
-      </c>
-      <c r="H321">
-        <v>68.65892347026174</v>
-      </c>
-      <c r="I321">
-        <v>22.79450009568107</v>
-      </c>
-      <c r="J321">
-        <v>6.62694175024522</v>
-      </c>
-      <c r="K321">
-        <v>1.919634683811336</v>
-      </c>
-      <c r="L321">
-        <v>11.1862597970638</v>
-      </c>
-      <c r="M321">
-        <v>9.950456551049641</v>
-      </c>
-      <c r="N321">
-        <v>4.845084396813652</v>
-      </c>
-      <c r="O321">
-        <v>7.90850101224926</v>
-      </c>
-      <c r="P321">
-        <v>20.84351784906655</v>
-      </c>
-      <c r="R321">
-        <v>17.75520524284802</v>
-      </c>
-      <c r="S321">
-        <v>4.540443752666177</v>
-      </c>
-      <c r="U321">
-        <v>0</v>
-      </c>
-      <c r="V321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="B322">
-        <v>2022</v>
-      </c>
-      <c r="H322">
-        <v>73.50611266532763</v>
-      </c>
-      <c r="I322">
-        <v>19.75742364062652</v>
-      </c>
-      <c r="J322">
-        <v>5.912525781511447</v>
-      </c>
-      <c r="K322">
-        <v>0.8239379125342197</v>
-      </c>
-      <c r="L322">
-        <v>14.79729159620364</v>
-      </c>
-      <c r="M322">
-        <v>7.329444101946135</v>
-      </c>
-      <c r="N322">
-        <v>4.000960889997459</v>
-      </c>
-      <c r="O322">
-        <v>5.84009615311604</v>
-      </c>
-      <c r="P322">
-        <v>11.93067530126971</v>
-      </c>
-      <c r="R322">
-        <v>1.727517889437057</v>
-      </c>
-      <c r="S322">
-        <v>10.58760673231056</v>
-      </c>
-      <c r="U322">
-        <v>0</v>
-      </c>
-      <c r="V322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="B323">
-        <v>2022</v>
-      </c>
-      <c r="H323">
-        <v>70.51663749415215</v>
-      </c>
-      <c r="I323">
-        <v>21.30653815954541</v>
-      </c>
-      <c r="J323">
-        <v>6.899691931741985</v>
-      </c>
-      <c r="K323">
-        <v>1.277132414560202</v>
-      </c>
-      <c r="L323">
-        <v>13.05687098600527</v>
-      </c>
-      <c r="M323">
-        <v>8.135377079787107</v>
-      </c>
-      <c r="N323">
-        <v>4.961957199170292</v>
-      </c>
-      <c r="O323">
-        <v>5.783236627421111</v>
-      </c>
-      <c r="P323">
-        <v>17.81059696562397</v>
-      </c>
-      <c r="R323">
-        <v>11.39582073433817</v>
-      </c>
-      <c r="S323">
-        <v>7.718388964421045</v>
-      </c>
-      <c r="U323">
-        <v>0</v>
-      </c>
-      <c r="V323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B324">
-        <v>2022</v>
-      </c>
-      <c r="H324">
-        <v>57.18983541157635</v>
-      </c>
-      <c r="I324">
-        <v>33.70433522673109</v>
-      </c>
-      <c r="J324">
-        <v>8.032114530383717</v>
-      </c>
-      <c r="K324">
-        <v>1.07371483130913</v>
-      </c>
-      <c r="L324">
-        <v>6.490976489371398</v>
-      </c>
-      <c r="M324">
-        <v>14.22378230381902</v>
-      </c>
-      <c r="N324">
-        <v>0.4579888785607632</v>
-      </c>
-      <c r="O324">
-        <v>14.08974728542072</v>
-      </c>
-      <c r="P324">
-        <v>32.32134158018892</v>
-      </c>
-      <c r="R324">
-        <v>9.380075973950261</v>
-      </c>
-      <c r="S324">
-        <v>25.17082578220512</v>
-      </c>
-      <c r="U324">
-        <v>0</v>
-      </c>
-      <c r="V324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>HU</t>
-        </is>
-      </c>
-      <c r="B325">
-        <v>2022</v>
-      </c>
-      <c r="H325">
-        <v>71.57582360270327</v>
-      </c>
-      <c r="I325">
-        <v>23.11749442950611</v>
-      </c>
-      <c r="J325">
-        <v>4.595096297237579</v>
-      </c>
-      <c r="K325">
-        <v>0.7115856705530311</v>
-      </c>
-      <c r="L325">
-        <v>11.25952405425488</v>
-      </c>
-      <c r="M325">
-        <v>8.002369178625383</v>
-      </c>
-      <c r="N325">
-        <v>1.804156844894178</v>
-      </c>
-      <c r="O325">
-        <v>7.406586131181557</v>
-      </c>
-      <c r="P325">
-        <v>15.17201305292523</v>
-      </c>
-      <c r="R325">
-        <v>5.39149139940834</v>
-      </c>
-      <c r="S325">
-        <v>10.48820155387088</v>
-      </c>
-      <c r="U325">
-        <v>0</v>
-      </c>
-      <c r="V325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="B326">
-        <v>2022</v>
-      </c>
-      <c r="H326">
-        <v>76.89557844200218</v>
-      </c>
-      <c r="I326">
-        <v>17.11328492845763</v>
-      </c>
-      <c r="J326">
-        <v>5.524810656434317</v>
-      </c>
-      <c r="K326">
-        <v>0.4663259731059472</v>
-      </c>
-      <c r="L326">
-        <v>7.116179561257822</v>
-      </c>
-      <c r="M326">
-        <v>11.83699795615345</v>
-      </c>
-      <c r="N326">
-        <v>5.149477461574665</v>
-      </c>
-      <c r="O326">
-        <v>9.901923434567111</v>
-      </c>
-      <c r="P326">
-        <v>10.55790551600082</v>
-      </c>
-      <c r="R326">
-        <v>8.105862043700027</v>
-      </c>
-      <c r="S326">
-        <v>2.999549354790724</v>
-      </c>
-      <c r="U326">
-        <v>0</v>
-      </c>
-      <c r="V326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="B327">
-        <v>2022</v>
-      </c>
-      <c r="H327">
-        <v>66.21923729551906</v>
-      </c>
-      <c r="I327">
-        <v>27.19397350201493</v>
-      </c>
-      <c r="J327">
-        <v>6.008446711436399</v>
-      </c>
-      <c r="K327">
-        <v>0.5783424910293747</v>
-      </c>
-      <c r="L327">
-        <v>9.779590821859408</v>
-      </c>
-      <c r="M327">
-        <v>5.427747917346981</v>
-      </c>
-      <c r="N327">
-        <v>1.826743113798247</v>
-      </c>
-      <c r="O327">
-        <v>4.307373200371728</v>
-      </c>
-      <c r="P327">
-        <v>25.73855565876946</v>
-      </c>
-      <c r="R327">
-        <v>9.898115346974301</v>
-      </c>
-      <c r="S327">
-        <v>18.02015519521466</v>
-      </c>
-      <c r="U327">
-        <v>0</v>
-      </c>
-      <c r="V327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="B328">
-        <v>2022</v>
-      </c>
-      <c r="H328">
-        <v>60.60385141358885</v>
-      </c>
-      <c r="I328">
-        <v>34.51250802552454</v>
-      </c>
-      <c r="J328">
-        <v>4.279889760104228</v>
-      </c>
-      <c r="K328">
-        <v>0.6037508007826142</v>
-      </c>
-      <c r="L328">
-        <v>5.431336803151719</v>
-      </c>
-      <c r="M328">
-        <v>5.235370384207917</v>
-      </c>
-      <c r="N328">
-        <v>0.7302362413575889</v>
-      </c>
-      <c r="O328">
-        <v>5.119896294181543</v>
-      </c>
-      <c r="P328">
-        <v>34.20864572240077</v>
-      </c>
-      <c r="R328">
-        <v>20.55986400771815</v>
-      </c>
-      <c r="S328">
-        <v>18.44913231314363</v>
-      </c>
-      <c r="U328">
-        <v>0</v>
-      </c>
-      <c r="V328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="B329">
-        <v>2022</v>
-      </c>
-      <c r="H329">
-        <v>72.58906682918783</v>
-      </c>
-      <c r="I329">
-        <v>23.54662772013875</v>
-      </c>
-      <c r="J329">
-        <v>3.234875032942567</v>
-      </c>
-      <c r="K329">
-        <v>0.6294304177308895</v>
-      </c>
-      <c r="L329">
-        <v>19.81952830528644</v>
-      </c>
-      <c r="M329">
-        <v>4.214027658906671</v>
-      </c>
-      <c r="N329">
-        <v>1.341278223723291</v>
-      </c>
-      <c r="O329">
-        <v>3.655164134305554</v>
-      </c>
-      <c r="P329">
-        <v>8.021262270180381</v>
-      </c>
-      <c r="R329">
-        <v>2.335165577369211</v>
-      </c>
-      <c r="S329">
-        <v>5.895503093888872</v>
-      </c>
-      <c r="U329">
-        <v>0</v>
-      </c>
-      <c r="V329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>LV</t>
-        </is>
-      </c>
-      <c r="B330">
-        <v>2022</v>
-      </c>
-      <c r="H330">
-        <v>53.57218626801624</v>
-      </c>
-      <c r="I330">
-        <v>39.57270818261679</v>
-      </c>
-      <c r="J330">
-        <v>5.994282291302696</v>
-      </c>
-      <c r="K330">
-        <v>0.8608232580648112</v>
-      </c>
-      <c r="L330">
-        <v>8.280947402347433</v>
-      </c>
-      <c r="M330">
-        <v>6.109129395632078</v>
-      </c>
-      <c r="N330">
-        <v>1.334773443094471</v>
-      </c>
-      <c r="O330">
-        <v>5.793566002681676</v>
-      </c>
-      <c r="P330">
-        <v>39.87671224906155</v>
-      </c>
-      <c r="R330">
-        <v>8.592161793713668</v>
-      </c>
-      <c r="S330">
-        <v>34.41823745532029</v>
-      </c>
-      <c r="U330">
-        <v>0</v>
-      </c>
-      <c r="V330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="B331">
-        <v>2022</v>
-      </c>
-      <c r="H331">
-        <v>83.44962519687246</v>
-      </c>
-      <c r="I331">
-        <v>14.22509818533374</v>
-      </c>
-      <c r="J331">
-        <v>2.154207510208394</v>
-      </c>
-      <c r="K331">
-        <v>0.1710691075845977</v>
-      </c>
-      <c r="L331">
-        <v>4.474671805518601</v>
-      </c>
-      <c r="M331">
-        <v>5.44683073706636</v>
-      </c>
-      <c r="N331">
-        <v>1.412451562637237</v>
-      </c>
-      <c r="O331">
-        <v>4.950193181780617</v>
-      </c>
-      <c r="P331">
-        <v>9.125217985919308</v>
-      </c>
-      <c r="R331">
-        <v>7.634228148000376</v>
-      </c>
-      <c r="S331">
-        <v>1.625114479584689</v>
-      </c>
-      <c r="U331">
-        <v>0</v>
-      </c>
-      <c r="V331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="B332">
-        <v>2022</v>
-      </c>
-      <c r="H332">
-        <v>59.90339162921604</v>
-      </c>
-      <c r="I332">
-        <v>32.15766141554581</v>
-      </c>
-      <c r="J332">
-        <v>7.247880442505117</v>
-      </c>
-      <c r="K332">
-        <v>0.6910665127328247</v>
-      </c>
-      <c r="L332">
-        <v>37.15240606120763</v>
-      </c>
-      <c r="M332">
-        <v>2.376463013303542</v>
-      </c>
-      <c r="N332">
-        <v>1.585096370830036</v>
-      </c>
-      <c r="O332">
-        <v>1.484861004991922</v>
-      </c>
-      <c r="P332">
-        <v>10.15610869286924</v>
-      </c>
-      <c r="R332">
-        <v>6.889109482361977</v>
-      </c>
-      <c r="S332">
-        <v>3.637848298512487</v>
-      </c>
-      <c r="U332">
-        <v>0</v>
-      </c>
-      <c r="V332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-      <c r="B333">
-        <v>2022</v>
-      </c>
-      <c r="H333">
-        <v>58.55954866002134</v>
-      </c>
-      <c r="I333">
-        <v>35.96782159243491</v>
-      </c>
-      <c r="J333">
-        <v>4.83231566334062</v>
-      </c>
-      <c r="K333">
-        <v>0.6403140842032843</v>
-      </c>
-      <c r="L333">
-        <v>9.035206087541567</v>
-      </c>
-      <c r="M333">
-        <v>5.058008630601632</v>
-      </c>
-      <c r="N333">
-        <v>0.6639740911765755</v>
-      </c>
-      <c r="O333">
-        <v>4.896691952519355</v>
-      </c>
-      <c r="P333">
-        <v>33.5214932540535</v>
-      </c>
-      <c r="R333">
-        <v>5.758686999418025</v>
-      </c>
-      <c r="S333">
-        <v>30.08969100131282</v>
-      </c>
-      <c r="U333">
-        <v>0</v>
-      </c>
-      <c r="V333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="B334">
-        <v>2022</v>
-      </c>
-      <c r="H334">
-        <v>71.00287911606888</v>
-      </c>
-      <c r="I334">
-        <v>24.58474924724658</v>
-      </c>
-      <c r="J334">
-        <v>3.787658070588647</v>
-      </c>
-      <c r="K334">
-        <v>0.6247135660957598</v>
-      </c>
-      <c r="L334">
-        <v>6.286795537810429</v>
-      </c>
-      <c r="M334">
-        <v>4.81272826876581</v>
-      </c>
-      <c r="N334">
-        <v>1.809074846437739</v>
-      </c>
-      <c r="O334">
-        <v>3.955226884894123</v>
-      </c>
-      <c r="P334">
-        <v>22.99446659160442</v>
-      </c>
-      <c r="R334">
-        <v>19.1326534770811</v>
-      </c>
-      <c r="S334">
-        <v>5.298694196658067</v>
-      </c>
-      <c r="U334">
-        <v>0</v>
-      </c>
-      <c r="V334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="B335">
-        <v>2022</v>
-      </c>
-      <c r="H335">
-        <v>49.7396287925655</v>
-      </c>
-      <c r="I335">
-        <v>36.11987936415505</v>
-      </c>
-      <c r="J335">
-        <v>11.92459370934231</v>
-      </c>
-      <c r="K335">
-        <v>2.215898133937658</v>
-      </c>
-      <c r="L335">
-        <v>12.15034072970755</v>
-      </c>
-      <c r="M335">
-        <v>17.18137413607552</v>
-      </c>
-      <c r="N335">
-        <v>0.683208050274685</v>
-      </c>
-      <c r="O335">
-        <v>17.03419981631329</v>
-      </c>
-      <c r="P335">
-        <v>37.28504631886953</v>
-      </c>
-      <c r="R335">
-        <v>14.03334149726163</v>
-      </c>
-      <c r="S335">
-        <v>27.94562852384362</v>
-      </c>
-      <c r="U335">
-        <v>0</v>
-      </c>
-      <c r="V335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="B336">
-        <v>2022</v>
-      </c>
-      <c r="H336">
-        <v>66.3332673818572</v>
-      </c>
-      <c r="I336">
-        <v>26.86628417577853</v>
-      </c>
-      <c r="J336">
-        <v>5.889939312881949</v>
-      </c>
-      <c r="K336">
-        <v>0.9105091294821474</v>
-      </c>
-      <c r="L336">
-        <v>17.62330174758919</v>
-      </c>
-      <c r="M336">
-        <v>5.040970208383215</v>
-      </c>
-      <c r="N336">
-        <v>2.924266148767074</v>
-      </c>
-      <c r="O336">
-        <v>3.687583741490125</v>
-      </c>
-      <c r="P336">
-        <v>19.08026799873904</v>
-      </c>
-      <c r="R336">
-        <v>3.324965723682745</v>
-      </c>
-      <c r="S336">
-        <v>16.34269442679068</v>
-      </c>
-      <c r="U336">
-        <v>0</v>
-      </c>
-      <c r="V336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="B337">
-        <v>2022</v>
-      </c>
-      <c r="H337">
-        <v>79.02932918639264</v>
-      </c>
-      <c r="I337">
-        <v>16.87810316007813</v>
-      </c>
-      <c r="J337">
-        <v>3.576948776839851</v>
-      </c>
-      <c r="K337">
-        <v>0.5156188766891074</v>
-      </c>
-      <c r="L337">
-        <v>6.879160196036775</v>
-      </c>
-      <c r="M337">
-        <v>6.65019717466868</v>
-      </c>
-      <c r="N337">
-        <v>1.610128381784944</v>
-      </c>
-      <c r="O337">
-        <v>6.256604923754487</v>
-      </c>
-      <c r="P337">
-        <v>12.04949997311969</v>
-      </c>
-      <c r="R337">
-        <v>3.52356205274365</v>
-      </c>
-      <c r="S337">
-        <v>9.12134404323519</v>
-      </c>
-      <c r="U337">
-        <v>0</v>
-      </c>
-      <c r="V337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="B338">
-        <v>2022</v>
-      </c>
-      <c r="H338">
-        <v>66.68126896846461</v>
-      </c>
-      <c r="I338">
-        <v>28.86211007357842</v>
-      </c>
-      <c r="J338">
-        <v>4.111501592546783</v>
-      </c>
-      <c r="K338">
-        <v>0.3451193654100964</v>
-      </c>
-      <c r="L338">
-        <v>3.354594831924524</v>
-      </c>
-      <c r="M338">
-        <v>5.931345467951104</v>
-      </c>
-      <c r="N338">
-        <v>2.065905080760887</v>
-      </c>
-      <c r="O338">
-        <v>5.095038092824473</v>
-      </c>
-      <c r="P338">
-        <v>28.85815339795231</v>
-      </c>
-      <c r="R338">
-        <v>6.38560337575871</v>
-      </c>
-      <c r="S338">
-        <v>24.92922071330294</v>
-      </c>
-      <c r="U338">
-        <v>0</v>
-      </c>
-      <c r="V338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="B339">
-        <v>2023</v>
-      </c>
-      <c r="C339">
-        <v>58.35023955023436</v>
-      </c>
-      <c r="D339">
-        <v>30.44478295962087</v>
-      </c>
-      <c r="E339">
-        <v>9.084439689324645</v>
-      </c>
-      <c r="F339">
-        <v>1.824831498197232</v>
-      </c>
-      <c r="G339">
-        <v>0.2957063026228103</v>
-      </c>
-      <c r="H339">
-        <v>75.12610594357108</v>
-      </c>
-      <c r="I339">
-        <v>19.76504725848815</v>
-      </c>
-      <c r="J339">
-        <v>4.396082559689912</v>
-      </c>
-      <c r="K339">
-        <v>0.7127642382508954</v>
-      </c>
-      <c r="L339">
-        <v>9.980382219804202</v>
-      </c>
-      <c r="M339">
-        <v>5.789783807738258</v>
-      </c>
-      <c r="N339">
-        <v>3.352923597874293</v>
-      </c>
-      <c r="O339">
-        <v>4.723998405809344</v>
-      </c>
-      <c r="P339">
-        <v>14.92533906507821</v>
-      </c>
-      <c r="Q339">
-        <v>22.01773829565373</v>
-      </c>
-      <c r="R339">
-        <v>4.308203670185516</v>
-      </c>
-      <c r="S339">
-        <v>12.10838000294733</v>
-      </c>
-      <c r="T339">
-        <v>9.516430549957775</v>
-      </c>
-      <c r="U339">
-        <v>0.5911964194134299</v>
-      </c>
-      <c r="V339">
-        <v>0.5009173620498593</v>
-      </c>
-      <c r="W339">
-        <v>24.57435258788892</v>
-      </c>
-      <c r="X339">
-        <v>7.781538634395126</v>
-      </c>
-      <c r="Y339">
-        <v>8.160391629107577</v>
-      </c>
-      <c r="Z339">
-        <v>20.59726625980213</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>BE</t>
-        </is>
-      </c>
-      <c r="B340">
-        <v>2023</v>
-      </c>
-      <c r="C340">
-        <v>60.85819310775555</v>
-      </c>
-      <c r="D340">
-        <v>28.99358193610421</v>
-      </c>
-      <c r="E340">
-        <v>8.291200643119815</v>
-      </c>
-      <c r="F340">
-        <v>1.547253029024242</v>
-      </c>
-      <c r="G340">
-        <v>0.309771283996143</v>
-      </c>
-      <c r="H340">
-        <v>77.58939005368079</v>
-      </c>
-      <c r="I340">
-        <v>17.82335790426888</v>
-      </c>
-      <c r="J340">
-        <v>4.051042440692285</v>
-      </c>
-      <c r="K340">
-        <v>0.5362096013579275</v>
-      </c>
-      <c r="L340">
-        <v>13.17051930638781</v>
-      </c>
-      <c r="M340">
-        <v>4.124325253466718</v>
-      </c>
-      <c r="N340">
-        <v>1.545549139633465</v>
-      </c>
-      <c r="O340">
-        <v>3.487526563278267</v>
-      </c>
-      <c r="P340">
-        <v>10.24804127295276</v>
-      </c>
-      <c r="Q340">
-        <v>22.67589579826119</v>
-      </c>
-      <c r="R340">
-        <v>6.567404709713999</v>
-      </c>
-      <c r="S340">
-        <v>4.565187464508702</v>
-      </c>
-      <c r="T340">
-        <v>14.17950488856273</v>
-      </c>
-      <c r="U340">
-        <v>1.17193790685124</v>
-      </c>
-      <c r="V340">
-        <v>1.110101032996575</v>
-      </c>
-      <c r="W340">
-        <v>23.92020657668193</v>
-      </c>
-      <c r="X340">
-        <v>13.22292444911429</v>
-      </c>
-      <c r="Y340">
-        <v>13.87010135689611</v>
-      </c>
-      <c r="Z340">
-        <v>14.99325574443066</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="B341">
-        <v>2023</v>
-      </c>
-      <c r="C341">
-        <v>38.29144233060782</v>
-      </c>
-      <c r="D341">
-        <v>38.02698552119965</v>
-      </c>
-      <c r="E341">
-        <v>17.69155377250473</v>
-      </c>
-      <c r="F341">
-        <v>5.166183171190527</v>
-      </c>
-      <c r="G341">
-        <v>0.8238352044972842</v>
-      </c>
-      <c r="H341">
-        <v>46.22108511258342</v>
-      </c>
-      <c r="I341">
-        <v>38.04361884269547</v>
-      </c>
-      <c r="J341">
-        <v>12.97691835502699</v>
-      </c>
-      <c r="K341">
-        <v>2.758377689694026</v>
-      </c>
-      <c r="L341">
-        <v>14.57952172557741</v>
-      </c>
-      <c r="M341">
-        <v>17.3353741147309</v>
-      </c>
-      <c r="N341">
-        <v>0.8554967926217614</v>
-      </c>
-      <c r="O341">
-        <v>17.22972606247224</v>
-      </c>
-      <c r="P341">
-        <v>40.35769278152321</v>
-      </c>
-      <c r="Q341">
-        <v>49.78125948691644</v>
-      </c>
-      <c r="R341">
-        <v>23.06462421649375</v>
-      </c>
-      <c r="S341">
-        <v>23.44301619898494</v>
-      </c>
-      <c r="T341">
-        <v>8.10942498696499</v>
-      </c>
-      <c r="U341">
-        <v>15.44561046345706</v>
-      </c>
-      <c r="V341">
-        <v>11.39450674614859</v>
-      </c>
-      <c r="W341">
-        <v>19.93139477593827</v>
-      </c>
-      <c r="X341">
-        <v>15.16001605063489</v>
-      </c>
-      <c r="Y341">
-        <v>9.140850417334455</v>
-      </c>
-      <c r="Z341">
-        <v>8.675351969724968</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>CY</t>
-        </is>
-      </c>
-      <c r="B342">
-        <v>2023</v>
-      </c>
-      <c r="C342">
-        <v>58.89242684193526</v>
-      </c>
-      <c r="D342">
-        <v>29.42507584581528</v>
-      </c>
-      <c r="E342">
-        <v>8.629323640051689</v>
-      </c>
-      <c r="F342">
-        <v>2.797151556529115</v>
-      </c>
-      <c r="G342">
-        <v>0.2560221156682877</v>
-      </c>
-      <c r="H342">
-        <v>76.1598731294111</v>
-      </c>
-      <c r="I342">
-        <v>16.17668283048603</v>
-      </c>
-      <c r="J342">
-        <v>6.581825744767671</v>
-      </c>
-      <c r="K342">
-        <v>1.081618295334944</v>
-      </c>
-      <c r="L342">
-        <v>4.861040694011145</v>
-      </c>
-      <c r="M342">
-        <v>10.14532635958952</v>
-      </c>
-      <c r="N342">
-        <v>4.035004386721192</v>
-      </c>
-      <c r="O342">
-        <v>7.970806538632272</v>
-      </c>
-      <c r="P342">
-        <v>17.57882215242555</v>
-      </c>
-      <c r="R342">
-        <v>16.74767032613477</v>
-      </c>
-      <c r="S342">
-        <v>1.660091837494021</v>
-      </c>
-      <c r="T342">
-        <v>30.57666040319164</v>
-      </c>
-      <c r="U342">
-        <v>0</v>
-      </c>
-      <c r="V342">
-        <v>0</v>
-      </c>
-      <c r="W342">
-        <v>23.51407705215298</v>
-      </c>
-      <c r="X342">
-        <v>9.511896762419941</v>
-      </c>
-      <c r="Y342">
-        <v>10.63415108440709</v>
-      </c>
-      <c r="Z342">
-        <v>18.99461779880968</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>CZ</t>
-        </is>
-      </c>
-      <c r="B343">
-        <v>2023</v>
-      </c>
-      <c r="C343">
-        <v>59.14853861736891</v>
-      </c>
-      <c r="D343">
-        <v>30.23815265590185</v>
-      </c>
-      <c r="E343">
-        <v>8.307586978375248</v>
-      </c>
-      <c r="F343">
-        <v>2.140819199692871</v>
-      </c>
-      <c r="G343">
-        <v>0.1649025486619474</v>
-      </c>
-      <c r="H343">
-        <v>71.5490331798056</v>
-      </c>
-      <c r="I343">
-        <v>22.55968004697208</v>
-      </c>
-      <c r="J343">
-        <v>5.118784352015996</v>
-      </c>
-      <c r="K343">
-        <v>0.7725024212069486</v>
-      </c>
-      <c r="L343">
-        <v>14.08052852735266</v>
-      </c>
-      <c r="M343">
-        <v>2.461098816699717</v>
-      </c>
-      <c r="N343">
-        <v>1.820482061042036</v>
-      </c>
-      <c r="O343">
-        <v>1.827533029595834</v>
-      </c>
-      <c r="P343">
-        <v>18.57312867057253</v>
-      </c>
-      <c r="R343">
-        <v>7.016522090941526</v>
-      </c>
-      <c r="S343">
-        <v>12.98652404970493</v>
-      </c>
-      <c r="T343">
-        <v>7.548981136832501</v>
-      </c>
-      <c r="U343">
-        <v>0</v>
-      </c>
-      <c r="V343">
-        <v>0</v>
-      </c>
-      <c r="W343">
-        <v>18.82063839175376</v>
-      </c>
-      <c r="X343">
-        <v>6.609471468657177</v>
-      </c>
-      <c r="Y343">
-        <v>7.925377451075898</v>
-      </c>
-      <c r="Z343">
-        <v>15.46687777429283</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="B344">
-        <v>2023</v>
-      </c>
-      <c r="C344">
-        <v>49.21897361911009</v>
-      </c>
-      <c r="D344">
-        <v>34.64677109534468</v>
-      </c>
-      <c r="E344">
-        <v>12.33851483226491</v>
-      </c>
-      <c r="F344">
-        <v>3.263454808567702</v>
-      </c>
-      <c r="G344">
-        <v>0.5322856447122677</v>
-      </c>
-      <c r="H344">
-        <v>66.8952321935154</v>
-      </c>
-      <c r="I344">
-        <v>26.15371091635095</v>
-      </c>
-      <c r="J344">
-        <v>6.177011873686395</v>
-      </c>
-      <c r="K344">
-        <v>0.774045016447102</v>
-      </c>
-      <c r="L344">
-        <v>17.95095908731045</v>
-      </c>
-      <c r="M344">
-        <v>6.130704544901355</v>
-      </c>
-      <c r="N344">
-        <v>2.452969609836514</v>
-      </c>
-      <c r="O344">
-        <v>4.992997081199756</v>
-      </c>
-      <c r="P344">
-        <v>17.07678522354928</v>
-      </c>
-      <c r="R344">
-        <v>8.384034723673988</v>
-      </c>
-      <c r="S344">
-        <v>10.0977274843782</v>
-      </c>
-      <c r="T344">
-        <v>14.76138572498098</v>
-      </c>
-      <c r="U344">
-        <v>0</v>
-      </c>
-      <c r="V344">
-        <v>0</v>
-      </c>
-      <c r="W344">
-        <v>31.22797544769175</v>
-      </c>
-      <c r="X344">
-        <v>11.32598469774959</v>
-      </c>
-      <c r="Y344">
-        <v>17.11151325210999</v>
-      </c>
-      <c r="Z344">
-        <v>25.71944742380875</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-      <c r="B345">
-        <v>2023</v>
-      </c>
-      <c r="C345">
-        <v>53.06668950896714</v>
-      </c>
-      <c r="D345">
-        <v>30.70447422763839</v>
-      </c>
-      <c r="E345">
-        <v>11.83049863966536</v>
-      </c>
-      <c r="F345">
-        <v>3.97184073715174</v>
-      </c>
-      <c r="G345">
-        <v>0.4264968865776494</v>
-      </c>
-      <c r="H345">
-        <v>63.20643289641511</v>
-      </c>
-      <c r="I345">
-        <v>26.7379749592607</v>
-      </c>
-      <c r="J345">
-        <v>8.842003853573145</v>
-      </c>
-      <c r="K345">
-        <v>1.213588290751263</v>
-      </c>
-      <c r="L345">
-        <v>26.94054466262102</v>
-      </c>
-      <c r="M345">
-        <v>5.797311635992243</v>
-      </c>
-      <c r="N345">
-        <v>3.01238353778512</v>
-      </c>
-      <c r="O345">
-        <v>4.722114460134725</v>
-      </c>
-      <c r="P345">
-        <v>15.40178274617279</v>
-      </c>
-      <c r="R345">
-        <v>7.97716774008309</v>
-      </c>
-      <c r="S345">
-        <v>8.62526099468208</v>
-      </c>
-      <c r="T345">
-        <v>14.74489291461084</v>
-      </c>
-      <c r="U345">
-        <v>0</v>
-      </c>
-      <c r="V345">
-        <v>0</v>
-      </c>
-      <c r="W345">
-        <v>20.69688656883222</v>
-      </c>
-      <c r="X345">
-        <v>6.353925146572209</v>
-      </c>
-      <c r="Y345">
-        <v>7.960628285978662</v>
-      </c>
-      <c r="Z345">
-        <v>17.31603955559136</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>EE</t>
-        </is>
-      </c>
-      <c r="B346">
-        <v>2023</v>
-      </c>
-      <c r="C346">
-        <v>62.77995875348441</v>
-      </c>
-      <c r="D346">
-        <v>29.03368114906626</v>
-      </c>
-      <c r="E346">
-        <v>6.761551128334105</v>
-      </c>
-      <c r="F346">
-        <v>1.342143379008634</v>
-      </c>
-      <c r="G346">
-        <v>0.08266559010661949</v>
-      </c>
-      <c r="H346">
-        <v>71.0441421709248</v>
-      </c>
-      <c r="I346">
-        <v>24.31039936610766</v>
-      </c>
-      <c r="J346">
-        <v>4.178600136683485</v>
-      </c>
-      <c r="K346">
-        <v>0.4668583262841885</v>
-      </c>
-      <c r="L346">
-        <v>11.46698785502216</v>
-      </c>
-      <c r="M346">
-        <v>4.191411061375604</v>
-      </c>
-      <c r="N346">
-        <v>1.089064318867847</v>
-      </c>
-      <c r="O346">
-        <v>3.76219690355222</v>
-      </c>
-      <c r="P346">
-        <v>18.40259755252372</v>
-      </c>
-      <c r="R346">
-        <v>4.857269145766073</v>
-      </c>
-      <c r="S346">
-        <v>14.39249918215955</v>
-      </c>
-      <c r="T346">
-        <v>10.79332496215303</v>
-      </c>
-      <c r="U346">
-        <v>0</v>
-      </c>
-      <c r="V346">
-        <v>0</v>
-      </c>
-      <c r="W346">
-        <v>12.88389342048549</v>
-      </c>
-      <c r="X346">
-        <v>4.00225327790803</v>
-      </c>
-      <c r="Y346">
-        <v>8.457129589861559</v>
-      </c>
-      <c r="Z346">
-        <v>10.17680557256347</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="B347">
-        <v>2023</v>
-      </c>
-      <c r="C347">
-        <v>27.18206592716134</v>
-      </c>
-      <c r="D347">
-        <v>29.74515419501483</v>
-      </c>
-      <c r="E347">
-        <v>23.43321357915003</v>
-      </c>
-      <c r="F347">
-        <v>14.89630927863157</v>
-      </c>
-      <c r="G347">
-        <v>4.743257020041749</v>
-      </c>
-      <c r="H347">
-        <v>38.21716366445998</v>
-      </c>
-      <c r="I347">
-        <v>30.10003020383802</v>
-      </c>
-      <c r="J347">
-        <v>21.49061712209148</v>
-      </c>
-      <c r="K347">
-        <v>10.19218900961012</v>
-      </c>
-      <c r="L347">
-        <v>36.11080955036847</v>
-      </c>
-      <c r="M347">
-        <v>34.19557872859832</v>
-      </c>
-      <c r="N347">
-        <v>8.198611523885079</v>
-      </c>
-      <c r="O347">
-        <v>31.73881638721089</v>
-      </c>
-      <c r="P347">
-        <v>33.35144319788462</v>
-      </c>
-      <c r="Q347">
-        <v>39.68325075045287</v>
-      </c>
-      <c r="R347">
-        <v>20.4398903428298</v>
-      </c>
-      <c r="S347">
-        <v>17.92875495527552</v>
-      </c>
-      <c r="T347">
-        <v>12.33194654887708</v>
-      </c>
-      <c r="U347">
-        <v>0.2311147821964658</v>
-      </c>
-      <c r="V347">
-        <v>0.2224011480838719</v>
-      </c>
-      <c r="W347">
-        <v>36.6157057925253</v>
-      </c>
-      <c r="X347">
-        <v>22.63052753914733</v>
-      </c>
-      <c r="Y347">
-        <v>20.71424562115683</v>
-      </c>
-      <c r="Z347">
-        <v>20.73666098075537</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="B348">
-        <v>2023</v>
-      </c>
-      <c r="C348">
-        <v>48.31939914520486</v>
-      </c>
-      <c r="D348">
-        <v>33.36807711794292</v>
-      </c>
-      <c r="E348">
-        <v>13.35861995946914</v>
-      </c>
-      <c r="F348">
-        <v>4.245836805604101</v>
-      </c>
-      <c r="G348">
-        <v>0.7080669717787097</v>
-      </c>
-      <c r="H348">
-        <v>66.0500034794173</v>
-      </c>
-      <c r="I348">
-        <v>24.85249871206222</v>
-      </c>
-      <c r="J348">
-        <v>7.627271890650064</v>
-      </c>
-      <c r="K348">
-        <v>1.470225917870001</v>
-      </c>
-      <c r="L348">
-        <v>10.37415400644856</v>
-      </c>
-      <c r="M348">
-        <v>9.96423155248644</v>
-      </c>
-      <c r="N348">
-        <v>4.879463979857177</v>
-      </c>
-      <c r="O348">
-        <v>8.047577236305829</v>
-      </c>
-      <c r="P348">
-        <v>24.31614965823691</v>
-      </c>
-      <c r="R348">
-        <v>20.99292981793316</v>
-      </c>
-      <c r="S348">
-        <v>5.089654834607522</v>
-      </c>
-      <c r="T348">
-        <v>21.95721868067074</v>
-      </c>
-      <c r="U348">
-        <v>0</v>
-      </c>
-      <c r="V348">
-        <v>0</v>
-      </c>
-      <c r="W348">
-        <v>31.21518244141623</v>
-      </c>
-      <c r="X348">
-        <v>13.85303112339711</v>
-      </c>
-      <c r="Y348">
-        <v>10.70303162208416</v>
-      </c>
-      <c r="Z348">
-        <v>24.11845389030802</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="B349">
-        <v>2023</v>
-      </c>
-      <c r="C349">
-        <v>52.67922824751166</v>
-      </c>
-      <c r="D349">
-        <v>30.27773771091275</v>
-      </c>
-      <c r="E349">
-        <v>12.21532317126083</v>
-      </c>
-      <c r="F349">
-        <v>4.066732815372443</v>
-      </c>
-      <c r="G349">
-        <v>0.7609780549423033</v>
-      </c>
-      <c r="H349">
-        <v>70.69660334915625</v>
-      </c>
-      <c r="I349">
-        <v>21.17584051548685</v>
-      </c>
-      <c r="J349">
-        <v>7.053476921241433</v>
-      </c>
-      <c r="K349">
-        <v>1.074079214115534</v>
-      </c>
-      <c r="L349">
-        <v>15.43704974669456</v>
-      </c>
-      <c r="M349">
-        <v>8.82351736271489</v>
-      </c>
-      <c r="N349">
-        <v>4.942990323460926</v>
-      </c>
-      <c r="O349">
-        <v>7.242439365133335</v>
-      </c>
-      <c r="P349">
-        <v>14.24888308128338</v>
-      </c>
-      <c r="R349">
-        <v>3.081902921680909</v>
-      </c>
-      <c r="S349">
-        <v>11.65779418043682</v>
-      </c>
-      <c r="T349">
-        <v>4.797610121798439</v>
-      </c>
-      <c r="U349">
-        <v>0</v>
-      </c>
-      <c r="V349">
-        <v>0</v>
-      </c>
-      <c r="W349">
-        <v>31.46687732876868</v>
-      </c>
-      <c r="X349">
-        <v>13.04399021592016</v>
-      </c>
-      <c r="Y349">
-        <v>10.14411259020154</v>
-      </c>
-      <c r="Z349">
-        <v>25.28986865269807</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="B350">
-        <v>2023</v>
-      </c>
-      <c r="C350">
-        <v>52.38736061916683</v>
-      </c>
-      <c r="D350">
-        <v>30.69093553428278</v>
-      </c>
-      <c r="E350">
-        <v>12.51321846287704</v>
-      </c>
-      <c r="F350">
-        <v>3.861995584546645</v>
-      </c>
-      <c r="G350">
-        <v>0.5464897991271559</v>
-      </c>
-      <c r="H350">
-        <v>69.78556192012316</v>
-      </c>
-      <c r="I350">
-        <v>21.50615552842157</v>
-      </c>
-      <c r="J350">
-        <v>7.605180415223995</v>
-      </c>
-      <c r="K350">
-        <v>1.103102136231605</v>
-      </c>
-      <c r="L350">
-        <v>12.37923073641533</v>
-      </c>
-      <c r="M350">
-        <v>7.924945404542121</v>
-      </c>
-      <c r="N350">
-        <v>4.351304924202502</v>
-      </c>
-      <c r="O350">
-        <v>6.209957374419807</v>
-      </c>
-      <c r="P350">
-        <v>19.51939185245504</v>
-      </c>
-      <c r="Q350">
-        <v>33.05048944912019</v>
-      </c>
-      <c r="R350">
-        <v>12.81516460813362</v>
-      </c>
-      <c r="S350">
-        <v>8.067261150786301</v>
-      </c>
-      <c r="T350">
-        <v>18.91267155119129</v>
-      </c>
-      <c r="U350">
-        <v>2.162096693238629</v>
-      </c>
-      <c r="V350">
-        <v>2.138418792526457</v>
-      </c>
-      <c r="W350">
-        <v>29.4447507582961</v>
-      </c>
-      <c r="X350">
-        <v>14.40776767264575</v>
-      </c>
-      <c r="Y350">
-        <v>15.98323508844909</v>
-      </c>
-      <c r="Z350">
-        <v>21.54951002864433</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B351">
-        <v>2023</v>
-      </c>
-      <c r="C351">
-        <v>55.31087811563135</v>
-      </c>
-      <c r="D351">
-        <v>34.30790857085037</v>
-      </c>
-      <c r="E351">
-        <v>9.138645842222319</v>
-      </c>
-      <c r="F351">
-        <v>1.202010939732944</v>
-      </c>
-      <c r="G351">
-        <v>0.04055653156329147</v>
-      </c>
-      <c r="H351">
-        <v>59.6825423276886</v>
-      </c>
-      <c r="I351">
-        <v>32.70113067385427</v>
-      </c>
-      <c r="J351">
-        <v>6.987379511553776</v>
-      </c>
-      <c r="K351">
-        <v>0.6289474869036201</v>
-      </c>
-      <c r="L351">
-        <v>7.008788102970442</v>
-      </c>
-      <c r="M351">
-        <v>10.78209173812643</v>
-      </c>
-      <c r="N351">
-        <v>0.532317201323055</v>
-      </c>
-      <c r="O351">
-        <v>10.65772426358325</v>
-      </c>
-      <c r="P351">
-        <v>30.79498895443544</v>
-      </c>
-      <c r="R351">
-        <v>8.44160620064544</v>
-      </c>
-      <c r="S351">
-        <v>24.00196538366385</v>
-      </c>
-      <c r="T351">
-        <v>6.762934685354913</v>
-      </c>
-      <c r="U351">
-        <v>0</v>
-      </c>
-      <c r="V351">
-        <v>0</v>
-      </c>
-      <c r="W351">
-        <v>7.764413848198735</v>
-      </c>
-      <c r="X351">
-        <v>1.411386881933918</v>
-      </c>
-      <c r="Y351">
-        <v>4.384655141847468</v>
-      </c>
-      <c r="Z351">
-        <v>6.826914564185219</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>HU</t>
-        </is>
-      </c>
-      <c r="B352">
-        <v>2023</v>
-      </c>
-      <c r="C352">
-        <v>64.1565863037679</v>
-      </c>
-      <c r="D352">
-        <v>26.62751339674168</v>
-      </c>
-      <c r="E352">
-        <v>7.274490120538226</v>
-      </c>
-      <c r="F352">
-        <v>1.770174828060556</v>
-      </c>
-      <c r="G352">
-        <v>0.1712353508916508</v>
-      </c>
-      <c r="H352">
-        <v>72.6659203691944</v>
-      </c>
-      <c r="I352">
-        <v>21.75663665558159</v>
-      </c>
-      <c r="J352">
-        <v>4.973221210750504</v>
-      </c>
-      <c r="K352">
-        <v>0.6042217644735137</v>
-      </c>
-      <c r="L352">
-        <v>10.25337786954521</v>
-      </c>
-      <c r="M352">
-        <v>6.747510389347358</v>
-      </c>
-      <c r="N352">
-        <v>1.715610703091077</v>
-      </c>
-      <c r="O352">
-        <v>6.164521612462956</v>
-      </c>
-      <c r="P352">
-        <v>16.51485611161057</v>
-      </c>
-      <c r="R352">
-        <v>8.025824406866166</v>
-      </c>
-      <c r="S352">
-        <v>9.773002954250625</v>
-      </c>
-      <c r="T352">
-        <v>11.64407733117754</v>
-      </c>
-      <c r="U352">
-        <v>0</v>
-      </c>
-      <c r="V352">
-        <v>0</v>
-      </c>
-      <c r="W352">
-        <v>13.65621515506326</v>
-      </c>
-      <c r="X352">
-        <v>5.729331082522362</v>
-      </c>
-      <c r="Y352">
-        <v>14.47815463541589</v>
-      </c>
-      <c r="Z352">
-        <v>10.31102775741691</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="B353">
-        <v>2023</v>
-      </c>
-      <c r="H353">
-        <v>78.55534596244419</v>
-      </c>
-      <c r="I353">
-        <v>15.99047117115249</v>
-      </c>
-      <c r="J353">
-        <v>4.554445663211434</v>
-      </c>
-      <c r="K353">
-        <v>0.8997372031918111</v>
-      </c>
-      <c r="L353">
-        <v>9.062633307431282</v>
-      </c>
-      <c r="M353">
-        <v>8.786956034815711</v>
-      </c>
-      <c r="N353">
-        <v>4.333915572400164</v>
-      </c>
-      <c r="O353">
-        <v>7.218250759224561</v>
-      </c>
-      <c r="P353">
-        <v>9.938789384226492</v>
-      </c>
-      <c r="R353">
-        <v>7.457685694920781</v>
-      </c>
-      <c r="S353">
-        <v>2.95541339806925</v>
-      </c>
-      <c r="U353">
-        <v>0</v>
-      </c>
-      <c r="V353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="B354">
-        <v>2023</v>
-      </c>
-      <c r="C354">
-        <v>58.14936696263452</v>
-      </c>
-      <c r="D354">
-        <v>32.01316728490896</v>
-      </c>
-      <c r="E354">
-        <v>8.044095788103981</v>
-      </c>
-      <c r="F354">
-        <v>1.669563877559643</v>
-      </c>
-      <c r="G354">
-        <v>0.1238060867937355</v>
-      </c>
-      <c r="H354">
-        <v>66.79586159468984</v>
-      </c>
-      <c r="I354">
-        <v>27.72797606543136</v>
-      </c>
-      <c r="J354">
-        <v>4.880689391717398</v>
-      </c>
-      <c r="K354">
-        <v>0.5954729481621693</v>
-      </c>
-      <c r="L354">
-        <v>8.580663325726119</v>
-      </c>
-      <c r="M354">
-        <v>4.480280634936661</v>
-      </c>
-      <c r="N354">
-        <v>1.545903324156133</v>
-      </c>
-      <c r="O354">
-        <v>3.599404550745801</v>
-      </c>
-      <c r="P354">
-        <v>26.21482973268997</v>
-      </c>
-      <c r="Q354">
-        <v>38.26259578097053</v>
-      </c>
-      <c r="R354">
-        <v>10.38237972974352</v>
-      </c>
-      <c r="S354">
-        <v>17.99059605174064</v>
-      </c>
-      <c r="T354">
-        <v>17.38450059182682</v>
-      </c>
-      <c r="U354">
-        <v>1.239552506927226</v>
-      </c>
-      <c r="V354">
-        <v>1.276602157755761</v>
-      </c>
-      <c r="W354">
-        <v>14.32950114761814</v>
-      </c>
-      <c r="X354">
-        <v>6.319502739089631</v>
-      </c>
-      <c r="Y354">
-        <v>9.882791571300203</v>
-      </c>
-      <c r="Z354">
-        <v>11.10335196107321</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="B355">
-        <v>2023</v>
-      </c>
-      <c r="C355">
-        <v>50.94697814678798</v>
-      </c>
-      <c r="D355">
-        <v>36.4681991051396</v>
-      </c>
-      <c r="E355">
-        <v>10.94364778628055</v>
-      </c>
-      <c r="F355">
-        <v>1.498609133728517</v>
-      </c>
-      <c r="G355">
-        <v>0.1425658280631532</v>
-      </c>
-      <c r="H355">
-        <v>56.31658137226852</v>
-      </c>
-      <c r="I355">
-        <v>36.6109910047161</v>
-      </c>
-      <c r="J355">
-        <v>6.503114838932468</v>
-      </c>
-      <c r="K355">
-        <v>0.5693127840825977</v>
-      </c>
-      <c r="L355">
-        <v>7.512620596758343</v>
-      </c>
-      <c r="M355">
-        <v>5.969672524791745</v>
-      </c>
-      <c r="N355">
-        <v>1.106644722953933</v>
-      </c>
-      <c r="O355">
-        <v>5.886198855173723</v>
-      </c>
-      <c r="P355">
-        <v>37.83318639555718</v>
-      </c>
-      <c r="Q355">
-        <v>45.18688528317571</v>
-      </c>
-      <c r="R355">
-        <v>23.01401309842388</v>
-      </c>
-      <c r="S355">
-        <v>19.5975412164479</v>
-      </c>
-      <c r="T355">
-        <v>9.348788432279514</v>
-      </c>
-      <c r="U355">
-        <v>7.825560603620257</v>
-      </c>
-      <c r="V355">
-        <v>8.412059285188137</v>
-      </c>
-      <c r="W355">
-        <v>12.08662803543436</v>
-      </c>
-      <c r="X355">
-        <v>2.86028733508083</v>
-      </c>
-      <c r="Y355">
-        <v>10.27182909286915</v>
-      </c>
-      <c r="Z355">
-        <v>10.27097035692078</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="B356">
-        <v>2023</v>
-      </c>
-      <c r="C356">
-        <v>44.88813547023686</v>
-      </c>
-      <c r="D356">
-        <v>40.24306586414281</v>
-      </c>
-      <c r="E356">
-        <v>11.52666415112386</v>
-      </c>
-      <c r="F356">
-        <v>2.803698082746115</v>
-      </c>
-      <c r="G356">
-        <v>0.5384364317501188</v>
-      </c>
-      <c r="H356">
-        <v>69.05885925870764</v>
-      </c>
-      <c r="I356">
-        <v>24.86661674779353</v>
-      </c>
-      <c r="J356">
-        <v>5.119684916519597</v>
-      </c>
-      <c r="K356">
-        <v>0.9548390769792959</v>
-      </c>
-      <c r="L356">
-        <v>24.93182974839242</v>
-      </c>
-      <c r="M356">
-        <v>5.128870946788239</v>
-      </c>
-      <c r="N356">
-        <v>2.621238363416979</v>
-      </c>
-      <c r="O356">
-        <v>3.788052685646389</v>
-      </c>
-      <c r="P356">
-        <v>9.572756851310658</v>
-      </c>
-      <c r="R356">
-        <v>2.477303830754061</v>
-      </c>
-      <c r="S356">
-        <v>7.347772932719403</v>
-      </c>
-      <c r="T356">
-        <v>16.36373817218371</v>
-      </c>
-      <c r="U356">
-        <v>0</v>
-      </c>
-      <c r="V356">
-        <v>0</v>
-      </c>
-      <c r="W356">
-        <v>35.59611183498777</v>
-      </c>
-      <c r="X356">
-        <v>8.082606268155164</v>
-      </c>
-      <c r="Y356">
-        <v>10.1046586695707</v>
-      </c>
-      <c r="Z356">
-        <v>32.5985264983186</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>LV</t>
-        </is>
-      </c>
-      <c r="B357">
-        <v>2023</v>
-      </c>
-      <c r="C357">
-        <v>45.27037056481154</v>
-      </c>
-      <c r="D357">
-        <v>38.22223453987119</v>
-      </c>
-      <c r="E357">
-        <v>13.74965257502377</v>
-      </c>
-      <c r="F357">
-        <v>2.512692013214881</v>
-      </c>
-      <c r="G357">
-        <v>0.2450503070785664</v>
-      </c>
-      <c r="H357">
-        <v>52.56651159386053</v>
-      </c>
-      <c r="I357">
-        <v>38.67696951109622</v>
-      </c>
-      <c r="J357">
-        <v>7.63730840610651</v>
-      </c>
-      <c r="K357">
-        <v>1.119210488936719</v>
-      </c>
-      <c r="L357">
-        <v>10.95327648178297</v>
-      </c>
-      <c r="M357">
-        <v>6.822519214244608</v>
-      </c>
-      <c r="N357">
-        <v>1.317467979616405</v>
-      </c>
-      <c r="O357">
-        <v>6.59063015498938</v>
-      </c>
-      <c r="P357">
-        <v>39.74492822354562</v>
-      </c>
-      <c r="Q357">
-        <v>51.63451650359735</v>
-      </c>
-      <c r="R357">
-        <v>8.362121044056163</v>
-      </c>
-      <c r="S357">
-        <v>34.67678691836574</v>
-      </c>
-      <c r="T357">
-        <v>17.88526713083596</v>
-      </c>
-      <c r="U357">
-        <v>7.875144542506765</v>
-      </c>
-      <c r="V357">
-        <v>8.672333047384141</v>
-      </c>
-      <c r="W357">
-        <v>16.838335193196</v>
-      </c>
-      <c r="X357">
-        <v>5.711811006374147</v>
-      </c>
-      <c r="Y357">
-        <v>15.04258104768856</v>
-      </c>
-      <c r="Z357">
-        <v>13.27345856414926</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="B358">
-        <v>2023</v>
-      </c>
-      <c r="C358">
-        <v>54.85909117985022</v>
-      </c>
-      <c r="D358">
-        <v>36.01682292507634</v>
-      </c>
-      <c r="E358">
-        <v>7.875098365468728</v>
-      </c>
-      <c r="F358">
-        <v>1.248987529606006</v>
-      </c>
-      <c r="G358">
-        <v>0</v>
-      </c>
-      <c r="H358">
-        <v>81.04180985264099</v>
-      </c>
-      <c r="I358">
-        <v>16.33112838456005</v>
-      </c>
-      <c r="J358">
-        <v>2.607364634021832</v>
-      </c>
-      <c r="K358">
-        <v>0.01969712877925963</v>
-      </c>
-      <c r="L358">
-        <v>7.598018291414688</v>
-      </c>
-      <c r="M358">
-        <v>5.225828994473509</v>
-      </c>
-      <c r="N358">
-        <v>1.614173902023244</v>
-      </c>
-      <c r="O358">
-        <v>4.266938238332906</v>
-      </c>
-      <c r="P358">
-        <v>8.781101753053374</v>
-      </c>
-      <c r="Q358">
-        <v>15.92170594152391</v>
-      </c>
-      <c r="R358">
-        <v>7.543637653838553</v>
-      </c>
-      <c r="S358">
-        <v>1.560784721943084</v>
-      </c>
-      <c r="T358">
-        <v>8.319616138688819</v>
-      </c>
-      <c r="U358">
-        <v>0.1827358057531412</v>
-      </c>
-      <c r="V358">
-        <v>0.213653106756777</v>
-      </c>
-      <c r="W358">
-        <v>33.90903320589029</v>
-      </c>
-      <c r="X358">
-        <v>7.569068189835174</v>
-      </c>
-      <c r="Y358">
-        <v>34.6313477319582</v>
-      </c>
-      <c r="Z358">
-        <v>30.47275097458198</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="B359">
-        <v>2023</v>
-      </c>
-      <c r="C359">
-        <v>46.9330841321377</v>
-      </c>
-      <c r="D359">
-        <v>36.11035063065635</v>
-      </c>
-      <c r="E359">
-        <v>12.89394526330849</v>
-      </c>
-      <c r="F359">
-        <v>3.585968396831181</v>
-      </c>
-      <c r="G359">
-        <v>0.4766515770659589</v>
-      </c>
-      <c r="H359">
-        <v>71.17140895589978</v>
-      </c>
-      <c r="I359">
-        <v>22.34915495880646</v>
-      </c>
-      <c r="J359">
-        <v>5.972685867661869</v>
-      </c>
-      <c r="K359">
-        <v>0.5067502176314856</v>
-      </c>
-      <c r="L359">
-        <v>21.92390803384112</v>
-      </c>
-      <c r="M359">
-        <v>2.377926991474351</v>
-      </c>
-      <c r="N359">
-        <v>1.776267968821086</v>
-      </c>
-      <c r="O359">
-        <v>1.114640364842478</v>
-      </c>
-      <c r="P359">
-        <v>12.06452077189111</v>
-      </c>
-      <c r="R359">
-        <v>8.701421215700075</v>
-      </c>
-      <c r="S359">
-        <v>4.130378990792367</v>
-      </c>
-      <c r="T359">
-        <v>15.94648174231054</v>
-      </c>
-      <c r="U359">
-        <v>0</v>
-      </c>
-      <c r="V359">
-        <v>0</v>
-      </c>
-      <c r="W359">
-        <v>39.03846093171504</v>
-      </c>
-      <c r="X359">
-        <v>18.22144017813346</v>
-      </c>
-      <c r="Y359">
-        <v>15.55360206078816</v>
-      </c>
-      <c r="Z359">
-        <v>31.72549280619702</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B360">
-        <v>2023</v>
-      </c>
-      <c r="C360">
-        <v>61.59650732724599</v>
-      </c>
-      <c r="D360">
-        <v>28.07583745421612</v>
-      </c>
-      <c r="E360">
-        <v>8.53265568278122</v>
-      </c>
-      <c r="F360">
-        <v>1.397943967810161</v>
-      </c>
-      <c r="G360">
-        <v>0.3970555679455906</v>
-      </c>
-      <c r="H360">
-        <v>72.79517569895417</v>
-      </c>
-      <c r="I360">
-        <v>22.90334564652064</v>
-      </c>
-      <c r="J360">
-        <v>3.818608509078682</v>
-      </c>
-      <c r="K360">
-        <v>0.4828701454456964</v>
-      </c>
-      <c r="L360">
-        <v>18.73519346321614</v>
-      </c>
-      <c r="M360">
-        <v>5.20745098161572</v>
-      </c>
-      <c r="N360">
-        <v>3.175713960927572</v>
-      </c>
-      <c r="O360">
-        <v>3.174536484261218</v>
-      </c>
-      <c r="P360">
-        <v>8.050513127293499</v>
-      </c>
-      <c r="R360">
-        <v>2.608821176893108</v>
-      </c>
-      <c r="S360">
-        <v>5.743236177207018</v>
-      </c>
-      <c r="T360">
-        <v>5.073519304421861</v>
-      </c>
-      <c r="U360">
-        <v>0</v>
-      </c>
-      <c r="V360">
-        <v>0</v>
-      </c>
-      <c r="W360">
-        <v>19.00656922749594</v>
-      </c>
-      <c r="X360">
-        <v>6.175522606581533</v>
-      </c>
-      <c r="Y360">
-        <v>9.676152097098569</v>
-      </c>
-      <c r="Z360">
-        <v>15.09232216351939</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
-      <c r="B361">
-        <v>2023</v>
-      </c>
-      <c r="C361">
-        <v>54.61500758199774</v>
-      </c>
-      <c r="D361">
-        <v>35.6572215720889</v>
-      </c>
-      <c r="E361">
-        <v>8.201468825559648</v>
-      </c>
-      <c r="F361">
-        <v>1.443781023482193</v>
-      </c>
-      <c r="G361">
-        <v>0.08252099687115486</v>
-      </c>
-      <c r="H361">
-        <v>60.53751400153937</v>
-      </c>
-      <c r="I361">
-        <v>34.27897135155384</v>
-      </c>
-      <c r="J361">
-        <v>4.677558958338</v>
-      </c>
-      <c r="K361">
-        <v>0.5059556885683572</v>
-      </c>
-      <c r="L361">
-        <v>9.383399184780499</v>
-      </c>
-      <c r="M361">
-        <v>4.18374469671131</v>
-      </c>
-      <c r="N361">
-        <v>0.7438790381116653</v>
-      </c>
-      <c r="O361">
-        <v>3.928776375332835</v>
-      </c>
-      <c r="P361">
-        <v>31.59365420795423</v>
-      </c>
-      <c r="Q361">
-        <v>34.24448441893275</v>
-      </c>
-      <c r="R361">
-        <v>5.712365562117934</v>
-      </c>
-      <c r="S361">
-        <v>27.98196222356433</v>
-      </c>
-      <c r="T361">
-        <v>5.609255821974826</v>
-      </c>
-      <c r="U361">
-        <v>1.503227551150595</v>
-      </c>
-      <c r="V361">
-        <v>1.777619412940048</v>
-      </c>
-      <c r="W361">
-        <v>11.58707113176072</v>
-      </c>
-      <c r="X361">
-        <v>3.101846332066907</v>
-      </c>
-      <c r="Y361">
-        <v>7.495230087942499</v>
-      </c>
-      <c r="Z361">
-        <v>10.13626168962137</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="B362">
-        <v>2023</v>
-      </c>
-      <c r="C362">
-        <v>48.39014953668004</v>
-      </c>
-      <c r="D362">
-        <v>36.69345560383513</v>
-      </c>
-      <c r="E362">
-        <v>12.54600301152253</v>
-      </c>
-      <c r="F362">
-        <v>2.1506076797275</v>
-      </c>
-      <c r="G362">
-        <v>0.219784168234334</v>
-      </c>
-      <c r="H362">
-        <v>67.60408930345696</v>
-      </c>
-      <c r="I362">
-        <v>27.85736147690498</v>
-      </c>
-      <c r="J362">
-        <v>4.009962538508451</v>
-      </c>
-      <c r="K362">
-        <v>0.5285866811292895</v>
-      </c>
-      <c r="L362">
-        <v>5.833642403500665</v>
-      </c>
-      <c r="M362">
-        <v>4.09404024703057</v>
-      </c>
-      <c r="N362">
-        <v>1.763104824533953</v>
-      </c>
-      <c r="O362">
-        <v>3.233359988962012</v>
-      </c>
-      <c r="P362">
-        <v>27.54715135571296</v>
-      </c>
-      <c r="Q362">
-        <v>43.99065883724306</v>
-      </c>
-      <c r="R362">
-        <v>22.42683983600178</v>
-      </c>
-      <c r="S362">
-        <v>7.460404691184486</v>
-      </c>
-      <c r="T362">
-        <v>28.2548553741291</v>
-      </c>
-      <c r="U362">
-        <v>0.6060717230189855</v>
-      </c>
-      <c r="V362">
-        <v>0.6814792656637962</v>
-      </c>
-      <c r="W362">
-        <v>31.66053297273193</v>
-      </c>
-      <c r="X362">
-        <v>7.268454201424909</v>
-      </c>
-      <c r="Y362">
-        <v>15.0669660851872</v>
-      </c>
-      <c r="Z362">
-        <v>28.60763153706044</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="B363">
-        <v>2023</v>
-      </c>
-      <c r="C363">
-        <v>41.63840423793631</v>
-      </c>
-      <c r="D363">
-        <v>38.00539390912356</v>
-      </c>
-      <c r="E363">
-        <v>14.84746320849063</v>
-      </c>
-      <c r="F363">
-        <v>4.693721215970492</v>
-      </c>
-      <c r="G363">
-        <v>0.8150174284785868</v>
-      </c>
-      <c r="H363">
-        <v>51.64182859203832</v>
-      </c>
-      <c r="I363">
-        <v>36.08413748441283</v>
-      </c>
-      <c r="J363">
-        <v>10.3704912927589</v>
-      </c>
-      <c r="K363">
-        <v>1.903542630789611</v>
-      </c>
-      <c r="L363">
-        <v>12.05914285003962</v>
-      </c>
-      <c r="M363">
-        <v>13.86154350909137</v>
-      </c>
-      <c r="N363">
-        <v>0.4523487133893138</v>
-      </c>
-      <c r="O363">
-        <v>13.57260351739918</v>
-      </c>
-      <c r="P363">
-        <v>36.61506160316837</v>
-      </c>
-      <c r="Q363">
-        <v>47.70459767167893</v>
-      </c>
-      <c r="R363">
-        <v>13.36168255103548</v>
-      </c>
-      <c r="S363">
-        <v>27.1373906780293</v>
-      </c>
-      <c r="T363">
-        <v>8.311821982550253</v>
-      </c>
-      <c r="U363">
-        <v>16.75691747697891</v>
-      </c>
-      <c r="V363">
-        <v>15.48894243433726</v>
-      </c>
-      <c r="W363">
-        <v>22.50580572563126</v>
-      </c>
-      <c r="X363">
-        <v>6.045206374103808</v>
-      </c>
-      <c r="Y363">
-        <v>11.46995095246296</v>
-      </c>
-      <c r="Z363">
-        <v>19.29022964897354</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="B364">
-        <v>2023</v>
-      </c>
-      <c r="C364">
-        <v>54.46460077040533</v>
-      </c>
-      <c r="D364">
-        <v>31.1281053699711</v>
-      </c>
-      <c r="E364">
-        <v>11.3288758929939</v>
-      </c>
-      <c r="F364">
-        <v>2.752074759451104</v>
-      </c>
-      <c r="G364">
-        <v>0.3263432071785193</v>
-      </c>
-      <c r="H364">
-        <v>63.30321269570584</v>
-      </c>
-      <c r="I364">
-        <v>28.70002401071007</v>
-      </c>
-      <c r="J364">
-        <v>7.051140810111654</v>
-      </c>
-      <c r="K364">
-        <v>0.945622483472933</v>
-      </c>
-      <c r="L364">
-        <v>20.38040000042645</v>
-      </c>
-      <c r="M364">
-        <v>4.694412540042917</v>
-      </c>
-      <c r="N364">
-        <v>3.087173599548114</v>
-      </c>
-      <c r="O364">
-        <v>3.152235385056702</v>
-      </c>
-      <c r="P364">
-        <v>21.01862000871971</v>
-      </c>
-      <c r="R364">
-        <v>6.238771417841486</v>
-      </c>
-      <c r="S364">
-        <v>15.85483396790286</v>
-      </c>
-      <c r="T364">
-        <v>4.473114106577182</v>
-      </c>
-      <c r="U364">
-        <v>0</v>
-      </c>
-      <c r="V364">
-        <v>0</v>
-      </c>
-      <c r="W364">
-        <v>19.14257709997992</v>
-      </c>
-      <c r="X364">
-        <v>9.684244995561821</v>
-      </c>
-      <c r="Y364">
-        <v>5.195868202151185</v>
-      </c>
-      <c r="Z364">
-        <v>12.10484543001923</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="B365">
-        <v>2023</v>
-      </c>
-      <c r="C365">
-        <v>64.40911371617392</v>
-      </c>
-      <c r="D365">
-        <v>27.60076080723439</v>
-      </c>
-      <c r="E365">
-        <v>6.858759534293263</v>
-      </c>
-      <c r="F365">
-        <v>0.9406465202030428</v>
-      </c>
-      <c r="G365">
-        <v>0.1907194220955408</v>
-      </c>
-      <c r="H365">
-        <v>79.19463073289054</v>
-      </c>
-      <c r="I365">
-        <v>17.19543192921171</v>
-      </c>
-      <c r="J365">
-        <v>3.273517665371961</v>
-      </c>
-      <c r="K365">
-        <v>0.3364196725256248</v>
-      </c>
-      <c r="L365">
-        <v>6.291472748719428</v>
-      </c>
-      <c r="M365">
-        <v>6.435411541077202</v>
-      </c>
-      <c r="N365">
-        <v>1.479228298412545</v>
-      </c>
-      <c r="O365">
-        <v>6.072506002359149</v>
-      </c>
-      <c r="P365">
-        <v>12.02484198773592</v>
-      </c>
-      <c r="Q365">
-        <v>26.74100100420783</v>
-      </c>
-      <c r="R365">
-        <v>4.443393486870345</v>
-      </c>
-      <c r="S365">
-        <v>8.385963264252545</v>
-      </c>
-      <c r="T365">
-        <v>18.86923250072225</v>
-      </c>
-      <c r="U365">
-        <v>0.5919975035571031</v>
-      </c>
-      <c r="V365">
-        <v>0.6231998731804363</v>
-      </c>
-      <c r="W365">
-        <v>20.1513708472797</v>
-      </c>
-      <c r="X365">
-        <v>7.003592096682631</v>
-      </c>
-      <c r="Y365">
-        <v>15.85156240791344</v>
-      </c>
-      <c r="Z365">
-        <v>15.19600010981735</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="B366">
-        <v>2023</v>
-      </c>
-      <c r="C366">
-        <v>60.82607811226116</v>
-      </c>
-      <c r="D366">
-        <v>29.1426853609199</v>
-      </c>
-      <c r="E366">
-        <v>7.858546601155666</v>
-      </c>
-      <c r="F366">
-        <v>1.835348672881828</v>
-      </c>
-      <c r="G366">
-        <v>0.3373412527814603</v>
-      </c>
-      <c r="H366">
-        <v>65.3325394150057</v>
-      </c>
-      <c r="I366">
-        <v>27.86378093737991</v>
-      </c>
-      <c r="J366">
-        <v>6.078146574026923</v>
-      </c>
-      <c r="K366">
-        <v>0.7255330735875645</v>
-      </c>
-      <c r="L366">
-        <v>8.369862571681487</v>
-      </c>
-      <c r="M366">
-        <v>6.606059544341142</v>
-      </c>
-      <c r="N366">
-        <v>2.10826678133763</v>
-      </c>
-      <c r="O366">
-        <v>5.812915569148544</v>
-      </c>
-      <c r="P366">
-        <v>27.22075119017383</v>
-      </c>
-      <c r="R366">
-        <v>7.024611342233721</v>
-      </c>
-      <c r="S366">
-        <v>23.02094771493673</v>
-      </c>
-      <c r="T366">
-        <v>4.700900705978996</v>
-      </c>
-      <c r="U366">
-        <v>0</v>
-      </c>
-      <c r="V366">
-        <v>0</v>
-      </c>
-      <c r="W366">
-        <v>9.518516286806154</v>
-      </c>
-      <c r="X366">
-        <v>3.234805208533523</v>
-      </c>
-      <c r="Y366">
-        <v>5.0944255060078</v>
-      </c>
-      <c r="Z366">
-        <v>7.972167451132004</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabs/household_precariousness.xlsx
+++ b/tabs/household_precariousness.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z311"/>
+  <dimension ref="A1:Z366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24730,6 +24730,3550 @@
         <v>0</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B312">
+        <v>2022</v>
+      </c>
+      <c r="H312">
+        <v>75.13993493769729</v>
+      </c>
+      <c r="I312">
+        <v>20.9518675102952</v>
+      </c>
+      <c r="J312">
+        <v>3.579447904986154</v>
+      </c>
+      <c r="K312">
+        <v>0.3287496470214524</v>
+      </c>
+      <c r="L312">
+        <v>10.25376033354496</v>
+      </c>
+      <c r="M312">
+        <v>3.785682922474064</v>
+      </c>
+      <c r="N312">
+        <v>2.219240738443754</v>
+      </c>
+      <c r="O312">
+        <v>2.644985881881483</v>
+      </c>
+      <c r="P312">
+        <v>15.0550582409856</v>
+      </c>
+      <c r="R312">
+        <v>3.190381448121809</v>
+      </c>
+      <c r="S312">
+        <v>12.63908312738945</v>
+      </c>
+      <c r="U312">
+        <v>0</v>
+      </c>
+      <c r="V312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="B313">
+        <v>2022</v>
+      </c>
+      <c r="H313">
+        <v>78.57985635452103</v>
+      </c>
+      <c r="I313">
+        <v>17.19292316111098</v>
+      </c>
+      <c r="J313">
+        <v>3.692779376425023</v>
+      </c>
+      <c r="K313">
+        <v>0.5344411079429844</v>
+      </c>
+      <c r="L313">
+        <v>12.85814827047543</v>
+      </c>
+      <c r="M313">
+        <v>3.906506777454394</v>
+      </c>
+      <c r="N313">
+        <v>1.957774752905874</v>
+      </c>
+      <c r="O313">
+        <v>3.042356078852915</v>
+      </c>
+      <c r="P313">
+        <v>9.415203701761849</v>
+      </c>
+      <c r="R313">
+        <v>5.276003119114233</v>
+      </c>
+      <c r="S313">
+        <v>4.720360745689372</v>
+      </c>
+      <c r="U313">
+        <v>0</v>
+      </c>
+      <c r="V313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B314">
+        <v>2022</v>
+      </c>
+      <c r="H314">
+        <v>41.36655142041215</v>
+      </c>
+      <c r="I314">
+        <v>38.85141435955492</v>
+      </c>
+      <c r="J314">
+        <v>15.90919145007119</v>
+      </c>
+      <c r="K314">
+        <v>3.87284276996135</v>
+      </c>
+      <c r="L314">
+        <v>21.14714344869394</v>
+      </c>
+      <c r="M314">
+        <v>18.54341396839801</v>
+      </c>
+      <c r="N314">
+        <v>0.8514879014801863</v>
+      </c>
+      <c r="O314">
+        <v>18.37826188178347</v>
+      </c>
+      <c r="P314">
+        <v>42.59776815248938</v>
+      </c>
+      <c r="R314">
+        <v>24.52745727194445</v>
+      </c>
+      <c r="S314">
+        <v>24.92365151961154</v>
+      </c>
+      <c r="U314">
+        <v>0</v>
+      </c>
+      <c r="V314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>CY</t>
+        </is>
+      </c>
+      <c r="B315">
+        <v>2022</v>
+      </c>
+      <c r="H315">
+        <v>77.34583444885652</v>
+      </c>
+      <c r="I315">
+        <v>13.31265025858559</v>
+      </c>
+      <c r="J315">
+        <v>8.499181908627644</v>
+      </c>
+      <c r="K315">
+        <v>0.8423333839305136</v>
+      </c>
+      <c r="L315">
+        <v>4.199134306942684</v>
+      </c>
+      <c r="M315">
+        <v>9.42397453528744</v>
+      </c>
+      <c r="N315">
+        <v>4.014405382188635</v>
+      </c>
+      <c r="O315">
+        <v>7.126613577011424</v>
+      </c>
+      <c r="P315">
+        <v>19.21490538540227</v>
+      </c>
+      <c r="R315">
+        <v>18.65530026143211</v>
+      </c>
+      <c r="S315">
+        <v>1.442975851808775</v>
+      </c>
+      <c r="U315">
+        <v>0</v>
+      </c>
+      <c r="V315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>CZ</t>
+        </is>
+      </c>
+      <c r="B316">
+        <v>2022</v>
+      </c>
+      <c r="H316">
+        <v>75.7635559150126</v>
+      </c>
+      <c r="I316">
+        <v>20.52471329384297</v>
+      </c>
+      <c r="J316">
+        <v>3.356296587764867</v>
+      </c>
+      <c r="K316">
+        <v>0.3554342033790739</v>
+      </c>
+      <c r="L316">
+        <v>11.10458026678494</v>
+      </c>
+      <c r="M316">
+        <v>2.180717396395705</v>
+      </c>
+      <c r="N316">
+        <v>1.348631977350465</v>
+      </c>
+      <c r="O316">
+        <v>1.74271152142861</v>
+      </c>
+      <c r="P316">
+        <v>15.01831141632932</v>
+      </c>
+      <c r="R316">
+        <v>3.40842804549984</v>
+      </c>
+      <c r="S316">
+        <v>12.12962136794795</v>
+      </c>
+      <c r="U316">
+        <v>0</v>
+      </c>
+      <c r="V316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="B317">
+        <v>2022</v>
+      </c>
+      <c r="H317">
+        <v>70.023882622584</v>
+      </c>
+      <c r="I317">
+        <v>24.6304677392021</v>
+      </c>
+      <c r="J317">
+        <v>4.870952647085544</v>
+      </c>
+      <c r="K317">
+        <v>0.4746969911288033</v>
+      </c>
+      <c r="L317">
+        <v>16.6184342267004</v>
+      </c>
+      <c r="M317">
+        <v>4.691485176432148</v>
+      </c>
+      <c r="N317">
+        <v>1.88303753897963</v>
+      </c>
+      <c r="O317">
+        <v>3.881678833828613</v>
+      </c>
+      <c r="P317">
+        <v>15.03852758815162</v>
+      </c>
+      <c r="R317">
+        <v>6.532359422024802</v>
+      </c>
+      <c r="S317">
+        <v>9.540718244761745</v>
+      </c>
+      <c r="U317">
+        <v>0</v>
+      </c>
+      <c r="V317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="B318">
+        <v>2022</v>
+      </c>
+      <c r="H318">
+        <v>63.47721205963557</v>
+      </c>
+      <c r="I318">
+        <v>27.69687883463368</v>
+      </c>
+      <c r="J318">
+        <v>7.633377546539021</v>
+      </c>
+      <c r="K318">
+        <v>1.192531559191685</v>
+      </c>
+      <c r="L318">
+        <v>27.21761078775392</v>
+      </c>
+      <c r="M318">
+        <v>4.503192595207276</v>
+      </c>
+      <c r="N318">
+        <v>2.037864522566192</v>
+      </c>
+      <c r="O318">
+        <v>3.662687287574383</v>
+      </c>
+      <c r="P318">
+        <v>14.82846890445353</v>
+      </c>
+      <c r="R318">
+        <v>6.303850641436077</v>
+      </c>
+      <c r="S318">
+        <v>9.068049525092462</v>
+      </c>
+      <c r="U318">
+        <v>0</v>
+      </c>
+      <c r="V318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="B319">
+        <v>2022</v>
+      </c>
+      <c r="H319">
+        <v>75.16457156915125</v>
+      </c>
+      <c r="I319">
+        <v>20.6727187920098</v>
+      </c>
+      <c r="J319">
+        <v>3.758271614483184</v>
+      </c>
+      <c r="K319">
+        <v>0.4044380243559841</v>
+      </c>
+      <c r="L319">
+        <v>7.804124797007909</v>
+      </c>
+      <c r="M319">
+        <v>5.027640886906665</v>
+      </c>
+      <c r="N319">
+        <v>1.297181703041717</v>
+      </c>
+      <c r="O319">
+        <v>4.322283556242701</v>
+      </c>
+      <c r="P319">
+        <v>16.57081041012956</v>
+      </c>
+      <c r="R319">
+        <v>4.13530787749002</v>
+      </c>
+      <c r="S319">
+        <v>13.41384262394859</v>
+      </c>
+      <c r="U319">
+        <v>0</v>
+      </c>
+      <c r="V319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B320">
+        <v>2022</v>
+      </c>
+      <c r="H320">
+        <v>36.60182467645917</v>
+      </c>
+      <c r="I320">
+        <v>34.27077846133329</v>
+      </c>
+      <c r="J320">
+        <v>21.16491267786852</v>
+      </c>
+      <c r="K320">
+        <v>7.962484184338405</v>
+      </c>
+      <c r="L320">
+        <v>32.74185802111823</v>
+      </c>
+      <c r="M320">
+        <v>33.45901759969297</v>
+      </c>
+      <c r="N320">
+        <v>8.403037550615094</v>
+      </c>
+      <c r="O320">
+        <v>31.60780163415662</v>
+      </c>
+      <c r="P320">
+        <v>34.28718074927433</v>
+      </c>
+      <c r="R320">
+        <v>20.22638589151711</v>
+      </c>
+      <c r="S320">
+        <v>19.13256289205034</v>
+      </c>
+      <c r="U320">
+        <v>0</v>
+      </c>
+      <c r="V320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B321">
+        <v>2022</v>
+      </c>
+      <c r="H321">
+        <v>68.65892347026174</v>
+      </c>
+      <c r="I321">
+        <v>22.79450009568107</v>
+      </c>
+      <c r="J321">
+        <v>6.62694175024522</v>
+      </c>
+      <c r="K321">
+        <v>1.919634683811336</v>
+      </c>
+      <c r="L321">
+        <v>11.1862597970638</v>
+      </c>
+      <c r="M321">
+        <v>9.950456551049641</v>
+      </c>
+      <c r="N321">
+        <v>4.845084396813652</v>
+      </c>
+      <c r="O321">
+        <v>7.90850101224926</v>
+      </c>
+      <c r="P321">
+        <v>20.84351784906655</v>
+      </c>
+      <c r="R321">
+        <v>17.75520524284802</v>
+      </c>
+      <c r="S321">
+        <v>4.540443752666177</v>
+      </c>
+      <c r="U321">
+        <v>0</v>
+      </c>
+      <c r="V321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+      <c r="B322">
+        <v>2022</v>
+      </c>
+      <c r="H322">
+        <v>73.50611266532763</v>
+      </c>
+      <c r="I322">
+        <v>19.75742364062652</v>
+      </c>
+      <c r="J322">
+        <v>5.912525781511447</v>
+      </c>
+      <c r="K322">
+        <v>0.8239379125342197</v>
+      </c>
+      <c r="L322">
+        <v>14.79729159620364</v>
+      </c>
+      <c r="M322">
+        <v>7.329444101946135</v>
+      </c>
+      <c r="N322">
+        <v>4.000960889997459</v>
+      </c>
+      <c r="O322">
+        <v>5.84009615311604</v>
+      </c>
+      <c r="P322">
+        <v>11.93067530126971</v>
+      </c>
+      <c r="R322">
+        <v>1.727517889437057</v>
+      </c>
+      <c r="S322">
+        <v>10.58760673231056</v>
+      </c>
+      <c r="U322">
+        <v>0</v>
+      </c>
+      <c r="V322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="B323">
+        <v>2022</v>
+      </c>
+      <c r="H323">
+        <v>70.51663749415215</v>
+      </c>
+      <c r="I323">
+        <v>21.30653815954541</v>
+      </c>
+      <c r="J323">
+        <v>6.899691931741985</v>
+      </c>
+      <c r="K323">
+        <v>1.277132414560202</v>
+      </c>
+      <c r="L323">
+        <v>13.05687098600527</v>
+      </c>
+      <c r="M323">
+        <v>8.135377079787107</v>
+      </c>
+      <c r="N323">
+        <v>4.961957199170292</v>
+      </c>
+      <c r="O323">
+        <v>5.783236627421111</v>
+      </c>
+      <c r="P323">
+        <v>17.81059696562397</v>
+      </c>
+      <c r="R323">
+        <v>11.39582073433817</v>
+      </c>
+      <c r="S323">
+        <v>7.718388964421045</v>
+      </c>
+      <c r="U323">
+        <v>0</v>
+      </c>
+      <c r="V323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B324">
+        <v>2022</v>
+      </c>
+      <c r="H324">
+        <v>57.18983541157635</v>
+      </c>
+      <c r="I324">
+        <v>33.70433522673109</v>
+      </c>
+      <c r="J324">
+        <v>8.032114530383717</v>
+      </c>
+      <c r="K324">
+        <v>1.07371483130913</v>
+      </c>
+      <c r="L324">
+        <v>6.490976489371398</v>
+      </c>
+      <c r="M324">
+        <v>14.22378230381902</v>
+      </c>
+      <c r="N324">
+        <v>0.4579888785607632</v>
+      </c>
+      <c r="O324">
+        <v>14.08974728542072</v>
+      </c>
+      <c r="P324">
+        <v>32.32134158018892</v>
+      </c>
+      <c r="R324">
+        <v>9.380075973950261</v>
+      </c>
+      <c r="S324">
+        <v>25.17082578220512</v>
+      </c>
+      <c r="U324">
+        <v>0</v>
+      </c>
+      <c r="V324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>HU</t>
+        </is>
+      </c>
+      <c r="B325">
+        <v>2022</v>
+      </c>
+      <c r="H325">
+        <v>71.57582360270327</v>
+      </c>
+      <c r="I325">
+        <v>23.11749442950611</v>
+      </c>
+      <c r="J325">
+        <v>4.595096297237579</v>
+      </c>
+      <c r="K325">
+        <v>0.7115856705530311</v>
+      </c>
+      <c r="L325">
+        <v>11.25952405425488</v>
+      </c>
+      <c r="M325">
+        <v>8.002369178625383</v>
+      </c>
+      <c r="N325">
+        <v>1.804156844894178</v>
+      </c>
+      <c r="O325">
+        <v>7.406586131181557</v>
+      </c>
+      <c r="P325">
+        <v>15.17201305292523</v>
+      </c>
+      <c r="R325">
+        <v>5.39149139940834</v>
+      </c>
+      <c r="S325">
+        <v>10.48820155387088</v>
+      </c>
+      <c r="U325">
+        <v>0</v>
+      </c>
+      <c r="V325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="B326">
+        <v>2022</v>
+      </c>
+      <c r="H326">
+        <v>76.89557844200218</v>
+      </c>
+      <c r="I326">
+        <v>17.11328492845763</v>
+      </c>
+      <c r="J326">
+        <v>5.524810656434317</v>
+      </c>
+      <c r="K326">
+        <v>0.4663259731059472</v>
+      </c>
+      <c r="L326">
+        <v>7.116179561257822</v>
+      </c>
+      <c r="M326">
+        <v>11.83699795615345</v>
+      </c>
+      <c r="N326">
+        <v>5.149477461574665</v>
+      </c>
+      <c r="O326">
+        <v>9.901923434567111</v>
+      </c>
+      <c r="P326">
+        <v>10.55790551600082</v>
+      </c>
+      <c r="R326">
+        <v>8.105862043700027</v>
+      </c>
+      <c r="S326">
+        <v>2.999549354790724</v>
+      </c>
+      <c r="U326">
+        <v>0</v>
+      </c>
+      <c r="V326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="B327">
+        <v>2022</v>
+      </c>
+      <c r="H327">
+        <v>66.21923729551906</v>
+      </c>
+      <c r="I327">
+        <v>27.19397350201493</v>
+      </c>
+      <c r="J327">
+        <v>6.008446711436399</v>
+      </c>
+      <c r="K327">
+        <v>0.5783424910293747</v>
+      </c>
+      <c r="L327">
+        <v>9.779590821859408</v>
+      </c>
+      <c r="M327">
+        <v>5.427747917346981</v>
+      </c>
+      <c r="N327">
+        <v>1.826743113798247</v>
+      </c>
+      <c r="O327">
+        <v>4.307373200371728</v>
+      </c>
+      <c r="P327">
+        <v>25.73855565876946</v>
+      </c>
+      <c r="R327">
+        <v>9.898115346974301</v>
+      </c>
+      <c r="S327">
+        <v>18.02015519521466</v>
+      </c>
+      <c r="U327">
+        <v>0</v>
+      </c>
+      <c r="V327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="B328">
+        <v>2022</v>
+      </c>
+      <c r="H328">
+        <v>60.60385141358885</v>
+      </c>
+      <c r="I328">
+        <v>34.51250802552454</v>
+      </c>
+      <c r="J328">
+        <v>4.279889760104228</v>
+      </c>
+      <c r="K328">
+        <v>0.6037508007826142</v>
+      </c>
+      <c r="L328">
+        <v>5.431336803151719</v>
+      </c>
+      <c r="M328">
+        <v>5.235370384207917</v>
+      </c>
+      <c r="N328">
+        <v>0.7302362413575889</v>
+      </c>
+      <c r="O328">
+        <v>5.119896294181543</v>
+      </c>
+      <c r="P328">
+        <v>34.20864572240077</v>
+      </c>
+      <c r="R328">
+        <v>20.55986400771815</v>
+      </c>
+      <c r="S328">
+        <v>18.44913231314363</v>
+      </c>
+      <c r="U328">
+        <v>0</v>
+      </c>
+      <c r="V328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="B329">
+        <v>2022</v>
+      </c>
+      <c r="H329">
+        <v>72.58906682918783</v>
+      </c>
+      <c r="I329">
+        <v>23.54662772013875</v>
+      </c>
+      <c r="J329">
+        <v>3.234875032942567</v>
+      </c>
+      <c r="K329">
+        <v>0.6294304177308895</v>
+      </c>
+      <c r="L329">
+        <v>19.81952830528644</v>
+      </c>
+      <c r="M329">
+        <v>4.214027658906671</v>
+      </c>
+      <c r="N329">
+        <v>1.341278223723291</v>
+      </c>
+      <c r="O329">
+        <v>3.655164134305554</v>
+      </c>
+      <c r="P329">
+        <v>8.021262270180381</v>
+      </c>
+      <c r="R329">
+        <v>2.335165577369211</v>
+      </c>
+      <c r="S329">
+        <v>5.895503093888872</v>
+      </c>
+      <c r="U329">
+        <v>0</v>
+      </c>
+      <c r="V329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>LV</t>
+        </is>
+      </c>
+      <c r="B330">
+        <v>2022</v>
+      </c>
+      <c r="H330">
+        <v>53.57218626801624</v>
+      </c>
+      <c r="I330">
+        <v>39.57270818261679</v>
+      </c>
+      <c r="J330">
+        <v>5.994282291302696</v>
+      </c>
+      <c r="K330">
+        <v>0.8608232580648112</v>
+      </c>
+      <c r="L330">
+        <v>8.280947402347433</v>
+      </c>
+      <c r="M330">
+        <v>6.109129395632078</v>
+      </c>
+      <c r="N330">
+        <v>1.334773443094471</v>
+      </c>
+      <c r="O330">
+        <v>5.793566002681676</v>
+      </c>
+      <c r="P330">
+        <v>39.87671224906155</v>
+      </c>
+      <c r="R330">
+        <v>8.592161793713668</v>
+      </c>
+      <c r="S330">
+        <v>34.41823745532029</v>
+      </c>
+      <c r="U330">
+        <v>0</v>
+      </c>
+      <c r="V330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B331">
+        <v>2022</v>
+      </c>
+      <c r="H331">
+        <v>83.44962519687246</v>
+      </c>
+      <c r="I331">
+        <v>14.22509818533374</v>
+      </c>
+      <c r="J331">
+        <v>2.154207510208394</v>
+      </c>
+      <c r="K331">
+        <v>0.1710691075845977</v>
+      </c>
+      <c r="L331">
+        <v>4.474671805518601</v>
+      </c>
+      <c r="M331">
+        <v>5.44683073706636</v>
+      </c>
+      <c r="N331">
+        <v>1.412451562637237</v>
+      </c>
+      <c r="O331">
+        <v>4.950193181780617</v>
+      </c>
+      <c r="P331">
+        <v>9.125217985919308</v>
+      </c>
+      <c r="R331">
+        <v>7.634228148000376</v>
+      </c>
+      <c r="S331">
+        <v>1.625114479584689</v>
+      </c>
+      <c r="U331">
+        <v>0</v>
+      </c>
+      <c r="V331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="B332">
+        <v>2022</v>
+      </c>
+      <c r="H332">
+        <v>59.90339162921604</v>
+      </c>
+      <c r="I332">
+        <v>32.15766141554581</v>
+      </c>
+      <c r="J332">
+        <v>7.247880442505117</v>
+      </c>
+      <c r="K332">
+        <v>0.6910665127328247</v>
+      </c>
+      <c r="L332">
+        <v>37.15240606120763</v>
+      </c>
+      <c r="M332">
+        <v>2.376463013303542</v>
+      </c>
+      <c r="N332">
+        <v>1.585096370830036</v>
+      </c>
+      <c r="O332">
+        <v>1.484861004991922</v>
+      </c>
+      <c r="P332">
+        <v>10.15610869286924</v>
+      </c>
+      <c r="R332">
+        <v>6.889109482361977</v>
+      </c>
+      <c r="S332">
+        <v>3.637848298512487</v>
+      </c>
+      <c r="U332">
+        <v>0</v>
+      </c>
+      <c r="V332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B333">
+        <v>2022</v>
+      </c>
+      <c r="H333">
+        <v>58.55954866002134</v>
+      </c>
+      <c r="I333">
+        <v>35.96782159243491</v>
+      </c>
+      <c r="J333">
+        <v>4.83231566334062</v>
+      </c>
+      <c r="K333">
+        <v>0.6403140842032843</v>
+      </c>
+      <c r="L333">
+        <v>9.035206087541567</v>
+      </c>
+      <c r="M333">
+        <v>5.058008630601632</v>
+      </c>
+      <c r="N333">
+        <v>0.6639740911765755</v>
+      </c>
+      <c r="O333">
+        <v>4.896691952519355</v>
+      </c>
+      <c r="P333">
+        <v>33.5214932540535</v>
+      </c>
+      <c r="R333">
+        <v>5.758686999418025</v>
+      </c>
+      <c r="S333">
+        <v>30.08969100131282</v>
+      </c>
+      <c r="U333">
+        <v>0</v>
+      </c>
+      <c r="V333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B334">
+        <v>2022</v>
+      </c>
+      <c r="H334">
+        <v>71.00287911606888</v>
+      </c>
+      <c r="I334">
+        <v>24.58474924724658</v>
+      </c>
+      <c r="J334">
+        <v>3.787658070588647</v>
+      </c>
+      <c r="K334">
+        <v>0.6247135660957598</v>
+      </c>
+      <c r="L334">
+        <v>6.286795537810429</v>
+      </c>
+      <c r="M334">
+        <v>4.81272826876581</v>
+      </c>
+      <c r="N334">
+        <v>1.809074846437739</v>
+      </c>
+      <c r="O334">
+        <v>3.955226884894123</v>
+      </c>
+      <c r="P334">
+        <v>22.99446659160442</v>
+      </c>
+      <c r="R334">
+        <v>19.1326534770811</v>
+      </c>
+      <c r="S334">
+        <v>5.298694196658067</v>
+      </c>
+      <c r="U334">
+        <v>0</v>
+      </c>
+      <c r="V334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B335">
+        <v>2022</v>
+      </c>
+      <c r="H335">
+        <v>49.7396287925655</v>
+      </c>
+      <c r="I335">
+        <v>36.11987936415505</v>
+      </c>
+      <c r="J335">
+        <v>11.92459370934231</v>
+      </c>
+      <c r="K335">
+        <v>2.215898133937658</v>
+      </c>
+      <c r="L335">
+        <v>12.15034072970755</v>
+      </c>
+      <c r="M335">
+        <v>17.18137413607552</v>
+      </c>
+      <c r="N335">
+        <v>0.683208050274685</v>
+      </c>
+      <c r="O335">
+        <v>17.03419981631329</v>
+      </c>
+      <c r="P335">
+        <v>37.28504631886953</v>
+      </c>
+      <c r="R335">
+        <v>14.03334149726163</v>
+      </c>
+      <c r="S335">
+        <v>27.94562852384362</v>
+      </c>
+      <c r="U335">
+        <v>0</v>
+      </c>
+      <c r="V335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B336">
+        <v>2022</v>
+      </c>
+      <c r="H336">
+        <v>66.3332673818572</v>
+      </c>
+      <c r="I336">
+        <v>26.86628417577853</v>
+      </c>
+      <c r="J336">
+        <v>5.889939312881949</v>
+      </c>
+      <c r="K336">
+        <v>0.9105091294821474</v>
+      </c>
+      <c r="L336">
+        <v>17.62330174758919</v>
+      </c>
+      <c r="M336">
+        <v>5.040970208383215</v>
+      </c>
+      <c r="N336">
+        <v>2.924266148767074</v>
+      </c>
+      <c r="O336">
+        <v>3.687583741490125</v>
+      </c>
+      <c r="P336">
+        <v>19.08026799873904</v>
+      </c>
+      <c r="R336">
+        <v>3.324965723682745</v>
+      </c>
+      <c r="S336">
+        <v>16.34269442679068</v>
+      </c>
+      <c r="U336">
+        <v>0</v>
+      </c>
+      <c r="V336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B337">
+        <v>2022</v>
+      </c>
+      <c r="H337">
+        <v>79.02932918639264</v>
+      </c>
+      <c r="I337">
+        <v>16.87810316007813</v>
+      </c>
+      <c r="J337">
+        <v>3.576948776839851</v>
+      </c>
+      <c r="K337">
+        <v>0.5156188766891074</v>
+      </c>
+      <c r="L337">
+        <v>6.879160196036775</v>
+      </c>
+      <c r="M337">
+        <v>6.65019717466868</v>
+      </c>
+      <c r="N337">
+        <v>1.610128381784944</v>
+      </c>
+      <c r="O337">
+        <v>6.256604923754487</v>
+      </c>
+      <c r="P337">
+        <v>12.04949997311969</v>
+      </c>
+      <c r="R337">
+        <v>3.52356205274365</v>
+      </c>
+      <c r="S337">
+        <v>9.12134404323519</v>
+      </c>
+      <c r="U337">
+        <v>0</v>
+      </c>
+      <c r="V337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B338">
+        <v>2022</v>
+      </c>
+      <c r="H338">
+        <v>66.68126896846461</v>
+      </c>
+      <c r="I338">
+        <v>28.86211007357842</v>
+      </c>
+      <c r="J338">
+        <v>4.111501592546783</v>
+      </c>
+      <c r="K338">
+        <v>0.3451193654100964</v>
+      </c>
+      <c r="L338">
+        <v>3.354594831924524</v>
+      </c>
+      <c r="M338">
+        <v>5.931345467951104</v>
+      </c>
+      <c r="N338">
+        <v>2.065905080760887</v>
+      </c>
+      <c r="O338">
+        <v>5.095038092824473</v>
+      </c>
+      <c r="P338">
+        <v>28.85815339795231</v>
+      </c>
+      <c r="R338">
+        <v>6.38560337575871</v>
+      </c>
+      <c r="S338">
+        <v>24.92922071330294</v>
+      </c>
+      <c r="U338">
+        <v>0</v>
+      </c>
+      <c r="V338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B339">
+        <v>2023</v>
+      </c>
+      <c r="C339">
+        <v>58.35023955023436</v>
+      </c>
+      <c r="D339">
+        <v>30.44478295962087</v>
+      </c>
+      <c r="E339">
+        <v>9.084439689324645</v>
+      </c>
+      <c r="F339">
+        <v>1.824831498197232</v>
+      </c>
+      <c r="G339">
+        <v>0.2957063026228103</v>
+      </c>
+      <c r="H339">
+        <v>75.12610594357108</v>
+      </c>
+      <c r="I339">
+        <v>19.76504725848815</v>
+      </c>
+      <c r="J339">
+        <v>4.396082559689912</v>
+      </c>
+      <c r="K339">
+        <v>0.7127642382508954</v>
+      </c>
+      <c r="L339">
+        <v>9.980382219804202</v>
+      </c>
+      <c r="M339">
+        <v>5.789783807738258</v>
+      </c>
+      <c r="N339">
+        <v>3.352923597874293</v>
+      </c>
+      <c r="O339">
+        <v>4.723998405809344</v>
+      </c>
+      <c r="P339">
+        <v>14.92533906507821</v>
+      </c>
+      <c r="Q339">
+        <v>22.01773829565373</v>
+      </c>
+      <c r="R339">
+        <v>4.308203670185516</v>
+      </c>
+      <c r="S339">
+        <v>12.10838000294733</v>
+      </c>
+      <c r="T339">
+        <v>9.516430549957775</v>
+      </c>
+      <c r="U339">
+        <v>0.5911964194134299</v>
+      </c>
+      <c r="V339">
+        <v>0.5009173620498593</v>
+      </c>
+      <c r="W339">
+        <v>24.57435258788892</v>
+      </c>
+      <c r="X339">
+        <v>7.781538634395126</v>
+      </c>
+      <c r="Y339">
+        <v>8.160391629107577</v>
+      </c>
+      <c r="Z339">
+        <v>20.59726625980213</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="B340">
+        <v>2023</v>
+      </c>
+      <c r="C340">
+        <v>60.85819310775555</v>
+      </c>
+      <c r="D340">
+        <v>28.99358193610421</v>
+      </c>
+      <c r="E340">
+        <v>8.291200643119815</v>
+      </c>
+      <c r="F340">
+        <v>1.547253029024242</v>
+      </c>
+      <c r="G340">
+        <v>0.309771283996143</v>
+      </c>
+      <c r="H340">
+        <v>77.58939005368079</v>
+      </c>
+      <c r="I340">
+        <v>17.82335790426888</v>
+      </c>
+      <c r="J340">
+        <v>4.051042440692285</v>
+      </c>
+      <c r="K340">
+        <v>0.5362096013579275</v>
+      </c>
+      <c r="L340">
+        <v>13.17051930638781</v>
+      </c>
+      <c r="M340">
+        <v>4.124325253466718</v>
+      </c>
+      <c r="N340">
+        <v>1.545549139633465</v>
+      </c>
+      <c r="O340">
+        <v>3.487526563278267</v>
+      </c>
+      <c r="P340">
+        <v>10.24804127295276</v>
+      </c>
+      <c r="Q340">
+        <v>22.67589579826119</v>
+      </c>
+      <c r="R340">
+        <v>6.567404709713999</v>
+      </c>
+      <c r="S340">
+        <v>4.565187464508702</v>
+      </c>
+      <c r="T340">
+        <v>14.17950488856273</v>
+      </c>
+      <c r="U340">
+        <v>1.17193790685124</v>
+      </c>
+      <c r="V340">
+        <v>1.110101032996575</v>
+      </c>
+      <c r="W340">
+        <v>23.92020657668193</v>
+      </c>
+      <c r="X340">
+        <v>13.22292444911429</v>
+      </c>
+      <c r="Y340">
+        <v>13.87010135689611</v>
+      </c>
+      <c r="Z340">
+        <v>14.99325574443066</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B341">
+        <v>2023</v>
+      </c>
+      <c r="C341">
+        <v>38.29144233060782</v>
+      </c>
+      <c r="D341">
+        <v>38.02698552119965</v>
+      </c>
+      <c r="E341">
+        <v>17.69155377250473</v>
+      </c>
+      <c r="F341">
+        <v>5.166183171190527</v>
+      </c>
+      <c r="G341">
+        <v>0.8238352044972842</v>
+      </c>
+      <c r="H341">
+        <v>46.22108511258342</v>
+      </c>
+      <c r="I341">
+        <v>38.04361884269547</v>
+      </c>
+      <c r="J341">
+        <v>12.97691835502699</v>
+      </c>
+      <c r="K341">
+        <v>2.758377689694026</v>
+      </c>
+      <c r="L341">
+        <v>14.57952172557741</v>
+      </c>
+      <c r="M341">
+        <v>17.3353741147309</v>
+      </c>
+      <c r="N341">
+        <v>0.8554967926217614</v>
+      </c>
+      <c r="O341">
+        <v>17.22972606247224</v>
+      </c>
+      <c r="P341">
+        <v>40.35769278152321</v>
+      </c>
+      <c r="Q341">
+        <v>49.78125948691644</v>
+      </c>
+      <c r="R341">
+        <v>23.06462421649375</v>
+      </c>
+      <c r="S341">
+        <v>23.44301619898494</v>
+      </c>
+      <c r="T341">
+        <v>8.10942498696499</v>
+      </c>
+      <c r="U341">
+        <v>15.44561046345706</v>
+      </c>
+      <c r="V341">
+        <v>11.39450674614859</v>
+      </c>
+      <c r="W341">
+        <v>19.93139477593827</v>
+      </c>
+      <c r="X341">
+        <v>15.16001605063489</v>
+      </c>
+      <c r="Y341">
+        <v>9.140850417334455</v>
+      </c>
+      <c r="Z341">
+        <v>8.675351969724968</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>CY</t>
+        </is>
+      </c>
+      <c r="B342">
+        <v>2023</v>
+      </c>
+      <c r="C342">
+        <v>58.89242684193526</v>
+      </c>
+      <c r="D342">
+        <v>29.42507584581528</v>
+      </c>
+      <c r="E342">
+        <v>8.629323640051689</v>
+      </c>
+      <c r="F342">
+        <v>2.797151556529115</v>
+      </c>
+      <c r="G342">
+        <v>0.2560221156682877</v>
+      </c>
+      <c r="H342">
+        <v>76.1598731294111</v>
+      </c>
+      <c r="I342">
+        <v>16.17668283048603</v>
+      </c>
+      <c r="J342">
+        <v>6.581825744767671</v>
+      </c>
+      <c r="K342">
+        <v>1.081618295334944</v>
+      </c>
+      <c r="L342">
+        <v>4.861040694011145</v>
+      </c>
+      <c r="M342">
+        <v>10.14532635958952</v>
+      </c>
+      <c r="N342">
+        <v>4.035004386721192</v>
+      </c>
+      <c r="O342">
+        <v>7.970806538632272</v>
+      </c>
+      <c r="P342">
+        <v>17.57882215242555</v>
+      </c>
+      <c r="R342">
+        <v>16.74767032613477</v>
+      </c>
+      <c r="S342">
+        <v>1.660091837494021</v>
+      </c>
+      <c r="T342">
+        <v>30.57666040319164</v>
+      </c>
+      <c r="U342">
+        <v>0</v>
+      </c>
+      <c r="V342">
+        <v>0</v>
+      </c>
+      <c r="W342">
+        <v>23.51407705215298</v>
+      </c>
+      <c r="X342">
+        <v>9.511896762419941</v>
+      </c>
+      <c r="Y342">
+        <v>10.63415108440709</v>
+      </c>
+      <c r="Z342">
+        <v>18.99461779880968</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>CZ</t>
+        </is>
+      </c>
+      <c r="B343">
+        <v>2023</v>
+      </c>
+      <c r="C343">
+        <v>59.14853861736891</v>
+      </c>
+      <c r="D343">
+        <v>30.23815265590185</v>
+      </c>
+      <c r="E343">
+        <v>8.307586978375248</v>
+      </c>
+      <c r="F343">
+        <v>2.140819199692871</v>
+      </c>
+      <c r="G343">
+        <v>0.1649025486619474</v>
+      </c>
+      <c r="H343">
+        <v>71.5490331798056</v>
+      </c>
+      <c r="I343">
+        <v>22.55968004697208</v>
+      </c>
+      <c r="J343">
+        <v>5.118784352015996</v>
+      </c>
+      <c r="K343">
+        <v>0.7725024212069486</v>
+      </c>
+      <c r="L343">
+        <v>14.08052852735266</v>
+      </c>
+      <c r="M343">
+        <v>2.461098816699717</v>
+      </c>
+      <c r="N343">
+        <v>1.820482061042036</v>
+      </c>
+      <c r="O343">
+        <v>1.827533029595834</v>
+      </c>
+      <c r="P343">
+        <v>18.57312867057253</v>
+      </c>
+      <c r="R343">
+        <v>7.016522090941526</v>
+      </c>
+      <c r="S343">
+        <v>12.98652404970493</v>
+      </c>
+      <c r="T343">
+        <v>7.548981136832501</v>
+      </c>
+      <c r="U343">
+        <v>0</v>
+      </c>
+      <c r="V343">
+        <v>0</v>
+      </c>
+      <c r="W343">
+        <v>18.82063839175376</v>
+      </c>
+      <c r="X343">
+        <v>6.609471468657177</v>
+      </c>
+      <c r="Y343">
+        <v>7.925377451075898</v>
+      </c>
+      <c r="Z343">
+        <v>15.46687777429283</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="B344">
+        <v>2023</v>
+      </c>
+      <c r="C344">
+        <v>49.21897361911009</v>
+      </c>
+      <c r="D344">
+        <v>34.64677109534468</v>
+      </c>
+      <c r="E344">
+        <v>12.33851483226491</v>
+      </c>
+      <c r="F344">
+        <v>3.263454808567702</v>
+      </c>
+      <c r="G344">
+        <v>0.5322856447122677</v>
+      </c>
+      <c r="H344">
+        <v>66.8952321935154</v>
+      </c>
+      <c r="I344">
+        <v>26.15371091635095</v>
+      </c>
+      <c r="J344">
+        <v>6.177011873686395</v>
+      </c>
+      <c r="K344">
+        <v>0.774045016447102</v>
+      </c>
+      <c r="L344">
+        <v>17.95095908731045</v>
+      </c>
+      <c r="M344">
+        <v>6.130704544901355</v>
+      </c>
+      <c r="N344">
+        <v>2.452969609836514</v>
+      </c>
+      <c r="O344">
+        <v>4.992997081199756</v>
+      </c>
+      <c r="P344">
+        <v>17.07678522354928</v>
+      </c>
+      <c r="R344">
+        <v>8.384034723673988</v>
+      </c>
+      <c r="S344">
+        <v>10.0977274843782</v>
+      </c>
+      <c r="T344">
+        <v>14.76138572498098</v>
+      </c>
+      <c r="U344">
+        <v>0</v>
+      </c>
+      <c r="V344">
+        <v>0</v>
+      </c>
+      <c r="W344">
+        <v>31.22797544769175</v>
+      </c>
+      <c r="X344">
+        <v>11.32598469774959</v>
+      </c>
+      <c r="Y344">
+        <v>17.11151325210999</v>
+      </c>
+      <c r="Z344">
+        <v>25.71944742380875</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="B345">
+        <v>2023</v>
+      </c>
+      <c r="C345">
+        <v>53.06668950896714</v>
+      </c>
+      <c r="D345">
+        <v>30.70447422763839</v>
+      </c>
+      <c r="E345">
+        <v>11.83049863966536</v>
+      </c>
+      <c r="F345">
+        <v>3.97184073715174</v>
+      </c>
+      <c r="G345">
+        <v>0.4264968865776494</v>
+      </c>
+      <c r="H345">
+        <v>63.20643289641511</v>
+      </c>
+      <c r="I345">
+        <v>26.7379749592607</v>
+      </c>
+      <c r="J345">
+        <v>8.842003853573145</v>
+      </c>
+      <c r="K345">
+        <v>1.213588290751263</v>
+      </c>
+      <c r="L345">
+        <v>26.94054466262102</v>
+      </c>
+      <c r="M345">
+        <v>5.797311635992243</v>
+      </c>
+      <c r="N345">
+        <v>3.01238353778512</v>
+      </c>
+      <c r="O345">
+        <v>4.722114460134725</v>
+      </c>
+      <c r="P345">
+        <v>15.40178274617279</v>
+      </c>
+      <c r="R345">
+        <v>7.97716774008309</v>
+      </c>
+      <c r="S345">
+        <v>8.62526099468208</v>
+      </c>
+      <c r="T345">
+        <v>14.74489291461084</v>
+      </c>
+      <c r="U345">
+        <v>0</v>
+      </c>
+      <c r="V345">
+        <v>0</v>
+      </c>
+      <c r="W345">
+        <v>20.69688656883222</v>
+      </c>
+      <c r="X345">
+        <v>6.353925146572209</v>
+      </c>
+      <c r="Y345">
+        <v>7.960628285978662</v>
+      </c>
+      <c r="Z345">
+        <v>17.31603955559136</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="B346">
+        <v>2023</v>
+      </c>
+      <c r="C346">
+        <v>62.77995875348441</v>
+      </c>
+      <c r="D346">
+        <v>29.03368114906626</v>
+      </c>
+      <c r="E346">
+        <v>6.761551128334105</v>
+      </c>
+      <c r="F346">
+        <v>1.342143379008634</v>
+      </c>
+      <c r="G346">
+        <v>0.08266559010661949</v>
+      </c>
+      <c r="H346">
+        <v>71.0441421709248</v>
+      </c>
+      <c r="I346">
+        <v>24.31039936610766</v>
+      </c>
+      <c r="J346">
+        <v>4.178600136683485</v>
+      </c>
+      <c r="K346">
+        <v>0.4668583262841885</v>
+      </c>
+      <c r="L346">
+        <v>11.46698785502216</v>
+      </c>
+      <c r="M346">
+        <v>4.191411061375604</v>
+      </c>
+      <c r="N346">
+        <v>1.089064318867847</v>
+      </c>
+      <c r="O346">
+        <v>3.76219690355222</v>
+      </c>
+      <c r="P346">
+        <v>18.40259755252372</v>
+      </c>
+      <c r="R346">
+        <v>4.857269145766073</v>
+      </c>
+      <c r="S346">
+        <v>14.39249918215955</v>
+      </c>
+      <c r="T346">
+        <v>10.79332496215303</v>
+      </c>
+      <c r="U346">
+        <v>0</v>
+      </c>
+      <c r="V346">
+        <v>0</v>
+      </c>
+      <c r="W346">
+        <v>12.88389342048549</v>
+      </c>
+      <c r="X346">
+        <v>4.00225327790803</v>
+      </c>
+      <c r="Y346">
+        <v>8.457129589861559</v>
+      </c>
+      <c r="Z346">
+        <v>10.17680557256347</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B347">
+        <v>2023</v>
+      </c>
+      <c r="C347">
+        <v>27.18206592716134</v>
+      </c>
+      <c r="D347">
+        <v>29.74515419501483</v>
+      </c>
+      <c r="E347">
+        <v>23.43321357915003</v>
+      </c>
+      <c r="F347">
+        <v>14.89630927863157</v>
+      </c>
+      <c r="G347">
+        <v>4.743257020041749</v>
+      </c>
+      <c r="H347">
+        <v>38.21716366445998</v>
+      </c>
+      <c r="I347">
+        <v>30.10003020383802</v>
+      </c>
+      <c r="J347">
+        <v>21.49061712209148</v>
+      </c>
+      <c r="K347">
+        <v>10.19218900961012</v>
+      </c>
+      <c r="L347">
+        <v>36.11080955036847</v>
+      </c>
+      <c r="M347">
+        <v>34.19557872859832</v>
+      </c>
+      <c r="N347">
+        <v>8.198611523885079</v>
+      </c>
+      <c r="O347">
+        <v>31.73881638721089</v>
+      </c>
+      <c r="P347">
+        <v>33.35144319788462</v>
+      </c>
+      <c r="Q347">
+        <v>39.68325075045287</v>
+      </c>
+      <c r="R347">
+        <v>20.4398903428298</v>
+      </c>
+      <c r="S347">
+        <v>17.92875495527552</v>
+      </c>
+      <c r="T347">
+        <v>12.33194654887708</v>
+      </c>
+      <c r="U347">
+        <v>0.2311147821964658</v>
+      </c>
+      <c r="V347">
+        <v>0.2224011480838719</v>
+      </c>
+      <c r="W347">
+        <v>36.6157057925253</v>
+      </c>
+      <c r="X347">
+        <v>22.63052753914733</v>
+      </c>
+      <c r="Y347">
+        <v>20.71424562115683</v>
+      </c>
+      <c r="Z347">
+        <v>20.73666098075537</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B348">
+        <v>2023</v>
+      </c>
+      <c r="C348">
+        <v>48.31939914520486</v>
+      </c>
+      <c r="D348">
+        <v>33.36807711794292</v>
+      </c>
+      <c r="E348">
+        <v>13.35861995946914</v>
+      </c>
+      <c r="F348">
+        <v>4.245836805604101</v>
+      </c>
+      <c r="G348">
+        <v>0.7080669717787097</v>
+      </c>
+      <c r="H348">
+        <v>66.0500034794173</v>
+      </c>
+      <c r="I348">
+        <v>24.85249871206222</v>
+      </c>
+      <c r="J348">
+        <v>7.627271890650064</v>
+      </c>
+      <c r="K348">
+        <v>1.470225917870001</v>
+      </c>
+      <c r="L348">
+        <v>10.37415400644856</v>
+      </c>
+      <c r="M348">
+        <v>9.96423155248644</v>
+      </c>
+      <c r="N348">
+        <v>4.879463979857177</v>
+      </c>
+      <c r="O348">
+        <v>8.047577236305829</v>
+      </c>
+      <c r="P348">
+        <v>24.31614965823691</v>
+      </c>
+      <c r="R348">
+        <v>20.99292981793316</v>
+      </c>
+      <c r="S348">
+        <v>5.089654834607522</v>
+      </c>
+      <c r="T348">
+        <v>21.95721868067074</v>
+      </c>
+      <c r="U348">
+        <v>0</v>
+      </c>
+      <c r="V348">
+        <v>0</v>
+      </c>
+      <c r="W348">
+        <v>31.21518244141623</v>
+      </c>
+      <c r="X348">
+        <v>13.85303112339711</v>
+      </c>
+      <c r="Y348">
+        <v>10.70303162208416</v>
+      </c>
+      <c r="Z348">
+        <v>24.11845389030802</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+      <c r="B349">
+        <v>2023</v>
+      </c>
+      <c r="C349">
+        <v>52.67922824751166</v>
+      </c>
+      <c r="D349">
+        <v>30.27773771091275</v>
+      </c>
+      <c r="E349">
+        <v>12.21532317126083</v>
+      </c>
+      <c r="F349">
+        <v>4.066732815372443</v>
+      </c>
+      <c r="G349">
+        <v>0.7609780549423033</v>
+      </c>
+      <c r="H349">
+        <v>70.69660334915625</v>
+      </c>
+      <c r="I349">
+        <v>21.17584051548685</v>
+      </c>
+      <c r="J349">
+        <v>7.053476921241433</v>
+      </c>
+      <c r="K349">
+        <v>1.074079214115534</v>
+      </c>
+      <c r="L349">
+        <v>15.43704974669456</v>
+      </c>
+      <c r="M349">
+        <v>8.82351736271489</v>
+      </c>
+      <c r="N349">
+        <v>4.942990323460926</v>
+      </c>
+      <c r="O349">
+        <v>7.242439365133335</v>
+      </c>
+      <c r="P349">
+        <v>14.24888308128338</v>
+      </c>
+      <c r="R349">
+        <v>3.081902921680909</v>
+      </c>
+      <c r="S349">
+        <v>11.65779418043682</v>
+      </c>
+      <c r="T349">
+        <v>4.797610121798439</v>
+      </c>
+      <c r="U349">
+        <v>0</v>
+      </c>
+      <c r="V349">
+        <v>0</v>
+      </c>
+      <c r="W349">
+        <v>31.46687732876868</v>
+      </c>
+      <c r="X349">
+        <v>13.04399021592016</v>
+      </c>
+      <c r="Y349">
+        <v>10.14411259020154</v>
+      </c>
+      <c r="Z349">
+        <v>25.28986865269807</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="B350">
+        <v>2023</v>
+      </c>
+      <c r="C350">
+        <v>52.38736061916683</v>
+      </c>
+      <c r="D350">
+        <v>30.69093553428278</v>
+      </c>
+      <c r="E350">
+        <v>12.51321846287704</v>
+      </c>
+      <c r="F350">
+        <v>3.861995584546645</v>
+      </c>
+      <c r="G350">
+        <v>0.5464897991271559</v>
+      </c>
+      <c r="H350">
+        <v>69.78556192012316</v>
+      </c>
+      <c r="I350">
+        <v>21.50615552842157</v>
+      </c>
+      <c r="J350">
+        <v>7.605180415223995</v>
+      </c>
+      <c r="K350">
+        <v>1.103102136231605</v>
+      </c>
+      <c r="L350">
+        <v>12.37923073641533</v>
+      </c>
+      <c r="M350">
+        <v>7.924945404542121</v>
+      </c>
+      <c r="N350">
+        <v>4.351304924202502</v>
+      </c>
+      <c r="O350">
+        <v>6.209957374419807</v>
+      </c>
+      <c r="P350">
+        <v>19.51939185245504</v>
+      </c>
+      <c r="Q350">
+        <v>33.05048944912019</v>
+      </c>
+      <c r="R350">
+        <v>12.81516460813362</v>
+      </c>
+      <c r="S350">
+        <v>8.067261150786301</v>
+      </c>
+      <c r="T350">
+        <v>18.91267155119129</v>
+      </c>
+      <c r="U350">
+        <v>2.162096693238629</v>
+      </c>
+      <c r="V350">
+        <v>2.138418792526457</v>
+      </c>
+      <c r="W350">
+        <v>29.4447507582961</v>
+      </c>
+      <c r="X350">
+        <v>14.40776767264575</v>
+      </c>
+      <c r="Y350">
+        <v>15.98323508844909</v>
+      </c>
+      <c r="Z350">
+        <v>21.54951002864433</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B351">
+        <v>2023</v>
+      </c>
+      <c r="C351">
+        <v>55.31087811563135</v>
+      </c>
+      <c r="D351">
+        <v>34.30790857085037</v>
+      </c>
+      <c r="E351">
+        <v>9.138645842222319</v>
+      </c>
+      <c r="F351">
+        <v>1.202010939732944</v>
+      </c>
+      <c r="G351">
+        <v>0.04055653156329147</v>
+      </c>
+      <c r="H351">
+        <v>59.6825423276886</v>
+      </c>
+      <c r="I351">
+        <v>32.70113067385427</v>
+      </c>
+      <c r="J351">
+        <v>6.987379511553776</v>
+      </c>
+      <c r="K351">
+        <v>0.6289474869036201</v>
+      </c>
+      <c r="L351">
+        <v>7.008788102970442</v>
+      </c>
+      <c r="M351">
+        <v>10.78209173812643</v>
+      </c>
+      <c r="N351">
+        <v>0.532317201323055</v>
+      </c>
+      <c r="O351">
+        <v>10.65772426358325</v>
+      </c>
+      <c r="P351">
+        <v>30.79498895443544</v>
+      </c>
+      <c r="R351">
+        <v>8.44160620064544</v>
+      </c>
+      <c r="S351">
+        <v>24.00196538366385</v>
+      </c>
+      <c r="T351">
+        <v>6.762934685354913</v>
+      </c>
+      <c r="U351">
+        <v>0</v>
+      </c>
+      <c r="V351">
+        <v>0</v>
+      </c>
+      <c r="W351">
+        <v>7.764413848198735</v>
+      </c>
+      <c r="X351">
+        <v>1.411386881933918</v>
+      </c>
+      <c r="Y351">
+        <v>4.384655141847468</v>
+      </c>
+      <c r="Z351">
+        <v>6.826914564185219</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>HU</t>
+        </is>
+      </c>
+      <c r="B352">
+        <v>2023</v>
+      </c>
+      <c r="C352">
+        <v>64.1565863037679</v>
+      </c>
+      <c r="D352">
+        <v>26.62751339674168</v>
+      </c>
+      <c r="E352">
+        <v>7.274490120538226</v>
+      </c>
+      <c r="F352">
+        <v>1.770174828060556</v>
+      </c>
+      <c r="G352">
+        <v>0.1712353508916508</v>
+      </c>
+      <c r="H352">
+        <v>72.6659203691944</v>
+      </c>
+      <c r="I352">
+        <v>21.75663665558159</v>
+      </c>
+      <c r="J352">
+        <v>4.973221210750504</v>
+      </c>
+      <c r="K352">
+        <v>0.6042217644735137</v>
+      </c>
+      <c r="L352">
+        <v>10.25337786954521</v>
+      </c>
+      <c r="M352">
+        <v>6.747510389347358</v>
+      </c>
+      <c r="N352">
+        <v>1.715610703091077</v>
+      </c>
+      <c r="O352">
+        <v>6.164521612462956</v>
+      </c>
+      <c r="P352">
+        <v>16.51485611161057</v>
+      </c>
+      <c r="R352">
+        <v>8.025824406866166</v>
+      </c>
+      <c r="S352">
+        <v>9.773002954250625</v>
+      </c>
+      <c r="T352">
+        <v>11.64407733117754</v>
+      </c>
+      <c r="U352">
+        <v>0</v>
+      </c>
+      <c r="V352">
+        <v>0</v>
+      </c>
+      <c r="W352">
+        <v>13.65621515506326</v>
+      </c>
+      <c r="X352">
+        <v>5.729331082522362</v>
+      </c>
+      <c r="Y352">
+        <v>14.47815463541589</v>
+      </c>
+      <c r="Z352">
+        <v>10.31102775741691</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="B353">
+        <v>2023</v>
+      </c>
+      <c r="H353">
+        <v>78.55534596244419</v>
+      </c>
+      <c r="I353">
+        <v>15.99047117115249</v>
+      </c>
+      <c r="J353">
+        <v>4.554445663211434</v>
+      </c>
+      <c r="K353">
+        <v>0.8997372031918111</v>
+      </c>
+      <c r="L353">
+        <v>9.062633307431282</v>
+      </c>
+      <c r="M353">
+        <v>8.786956034815711</v>
+      </c>
+      <c r="N353">
+        <v>4.333915572400164</v>
+      </c>
+      <c r="O353">
+        <v>7.218250759224561</v>
+      </c>
+      <c r="P353">
+        <v>9.938789384226492</v>
+      </c>
+      <c r="R353">
+        <v>7.457685694920781</v>
+      </c>
+      <c r="S353">
+        <v>2.95541339806925</v>
+      </c>
+      <c r="U353">
+        <v>0</v>
+      </c>
+      <c r="V353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="B354">
+        <v>2023</v>
+      </c>
+      <c r="C354">
+        <v>58.14936696263452</v>
+      </c>
+      <c r="D354">
+        <v>32.01316728490896</v>
+      </c>
+      <c r="E354">
+        <v>8.044095788103981</v>
+      </c>
+      <c r="F354">
+        <v>1.669563877559643</v>
+      </c>
+      <c r="G354">
+        <v>0.1238060867937355</v>
+      </c>
+      <c r="H354">
+        <v>66.79586159468984</v>
+      </c>
+      <c r="I354">
+        <v>27.72797606543136</v>
+      </c>
+      <c r="J354">
+        <v>4.880689391717398</v>
+      </c>
+      <c r="K354">
+        <v>0.5954729481621693</v>
+      </c>
+      <c r="L354">
+        <v>8.580663325726119</v>
+      </c>
+      <c r="M354">
+        <v>4.480280634936661</v>
+      </c>
+      <c r="N354">
+        <v>1.545903324156133</v>
+      </c>
+      <c r="O354">
+        <v>3.599404550745801</v>
+      </c>
+      <c r="P354">
+        <v>26.21482973268997</v>
+      </c>
+      <c r="Q354">
+        <v>38.26259578097053</v>
+      </c>
+      <c r="R354">
+        <v>10.38237972974352</v>
+      </c>
+      <c r="S354">
+        <v>17.99059605174064</v>
+      </c>
+      <c r="T354">
+        <v>17.38450059182682</v>
+      </c>
+      <c r="U354">
+        <v>1.239552506927226</v>
+      </c>
+      <c r="V354">
+        <v>1.276602157755761</v>
+      </c>
+      <c r="W354">
+        <v>14.32950114761814</v>
+      </c>
+      <c r="X354">
+        <v>6.319502739089631</v>
+      </c>
+      <c r="Y354">
+        <v>9.882791571300203</v>
+      </c>
+      <c r="Z354">
+        <v>11.10335196107321</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="B355">
+        <v>2023</v>
+      </c>
+      <c r="C355">
+        <v>50.94697814678798</v>
+      </c>
+      <c r="D355">
+        <v>36.4681991051396</v>
+      </c>
+      <c r="E355">
+        <v>10.94364778628055</v>
+      </c>
+      <c r="F355">
+        <v>1.498609133728517</v>
+      </c>
+      <c r="G355">
+        <v>0.1425658280631532</v>
+      </c>
+      <c r="H355">
+        <v>56.31658137226852</v>
+      </c>
+      <c r="I355">
+        <v>36.6109910047161</v>
+      </c>
+      <c r="J355">
+        <v>6.503114838932468</v>
+      </c>
+      <c r="K355">
+        <v>0.5693127840825977</v>
+      </c>
+      <c r="L355">
+        <v>7.512620596758343</v>
+      </c>
+      <c r="M355">
+        <v>5.969672524791745</v>
+      </c>
+      <c r="N355">
+        <v>1.106644722953933</v>
+      </c>
+      <c r="O355">
+        <v>5.886198855173723</v>
+      </c>
+      <c r="P355">
+        <v>37.83318639555718</v>
+      </c>
+      <c r="Q355">
+        <v>45.18688528317571</v>
+      </c>
+      <c r="R355">
+        <v>23.01401309842388</v>
+      </c>
+      <c r="S355">
+        <v>19.5975412164479</v>
+      </c>
+      <c r="T355">
+        <v>9.348788432279514</v>
+      </c>
+      <c r="U355">
+        <v>7.825560603620257</v>
+      </c>
+      <c r="V355">
+        <v>8.412059285188137</v>
+      </c>
+      <c r="W355">
+        <v>12.08662803543436</v>
+      </c>
+      <c r="X355">
+        <v>2.86028733508083</v>
+      </c>
+      <c r="Y355">
+        <v>10.27182909286915</v>
+      </c>
+      <c r="Z355">
+        <v>10.27097035692078</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="B356">
+        <v>2023</v>
+      </c>
+      <c r="C356">
+        <v>44.88813547023686</v>
+      </c>
+      <c r="D356">
+        <v>40.24306586414281</v>
+      </c>
+      <c r="E356">
+        <v>11.52666415112386</v>
+      </c>
+      <c r="F356">
+        <v>2.803698082746115</v>
+      </c>
+      <c r="G356">
+        <v>0.5384364317501188</v>
+      </c>
+      <c r="H356">
+        <v>69.05885925870764</v>
+      </c>
+      <c r="I356">
+        <v>24.86661674779353</v>
+      </c>
+      <c r="J356">
+        <v>5.119684916519597</v>
+      </c>
+      <c r="K356">
+        <v>0.9548390769792959</v>
+      </c>
+      <c r="L356">
+        <v>24.93182974839242</v>
+      </c>
+      <c r="M356">
+        <v>5.128870946788239</v>
+      </c>
+      <c r="N356">
+        <v>2.621238363416979</v>
+      </c>
+      <c r="O356">
+        <v>3.788052685646389</v>
+      </c>
+      <c r="P356">
+        <v>9.572756851310658</v>
+      </c>
+      <c r="R356">
+        <v>2.477303830754061</v>
+      </c>
+      <c r="S356">
+        <v>7.347772932719403</v>
+      </c>
+      <c r="T356">
+        <v>16.36373817218371</v>
+      </c>
+      <c r="U356">
+        <v>0</v>
+      </c>
+      <c r="V356">
+        <v>0</v>
+      </c>
+      <c r="W356">
+        <v>35.59611183498777</v>
+      </c>
+      <c r="X356">
+        <v>8.082606268155164</v>
+      </c>
+      <c r="Y356">
+        <v>10.1046586695707</v>
+      </c>
+      <c r="Z356">
+        <v>32.5985264983186</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>LV</t>
+        </is>
+      </c>
+      <c r="B357">
+        <v>2023</v>
+      </c>
+      <c r="C357">
+        <v>45.27037056481154</v>
+      </c>
+      <c r="D357">
+        <v>38.22223453987119</v>
+      </c>
+      <c r="E357">
+        <v>13.74965257502377</v>
+      </c>
+      <c r="F357">
+        <v>2.512692013214881</v>
+      </c>
+      <c r="G357">
+        <v>0.2450503070785664</v>
+      </c>
+      <c r="H357">
+        <v>52.56651159386053</v>
+      </c>
+      <c r="I357">
+        <v>38.67696951109622</v>
+      </c>
+      <c r="J357">
+        <v>7.63730840610651</v>
+      </c>
+      <c r="K357">
+        <v>1.119210488936719</v>
+      </c>
+      <c r="L357">
+        <v>10.95327648178297</v>
+      </c>
+      <c r="M357">
+        <v>6.822519214244608</v>
+      </c>
+      <c r="N357">
+        <v>1.317467979616405</v>
+      </c>
+      <c r="O357">
+        <v>6.59063015498938</v>
+      </c>
+      <c r="P357">
+        <v>39.74492822354562</v>
+      </c>
+      <c r="Q357">
+        <v>51.63451650359735</v>
+      </c>
+      <c r="R357">
+        <v>8.362121044056163</v>
+      </c>
+      <c r="S357">
+        <v>34.67678691836574</v>
+      </c>
+      <c r="T357">
+        <v>17.88526713083596</v>
+      </c>
+      <c r="U357">
+        <v>7.875144542506765</v>
+      </c>
+      <c r="V357">
+        <v>8.672333047384141</v>
+      </c>
+      <c r="W357">
+        <v>16.838335193196</v>
+      </c>
+      <c r="X357">
+        <v>5.711811006374147</v>
+      </c>
+      <c r="Y357">
+        <v>15.04258104768856</v>
+      </c>
+      <c r="Z357">
+        <v>13.27345856414926</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B358">
+        <v>2023</v>
+      </c>
+      <c r="C358">
+        <v>54.85909117985022</v>
+      </c>
+      <c r="D358">
+        <v>36.01682292507634</v>
+      </c>
+      <c r="E358">
+        <v>7.875098365468728</v>
+      </c>
+      <c r="F358">
+        <v>1.248987529606006</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>81.04180985264099</v>
+      </c>
+      <c r="I358">
+        <v>16.33112838456005</v>
+      </c>
+      <c r="J358">
+        <v>2.607364634021832</v>
+      </c>
+      <c r="K358">
+        <v>0.01969712877925963</v>
+      </c>
+      <c r="L358">
+        <v>7.598018291414688</v>
+      </c>
+      <c r="M358">
+        <v>5.225828994473509</v>
+      </c>
+      <c r="N358">
+        <v>1.614173902023244</v>
+      </c>
+      <c r="O358">
+        <v>4.266938238332906</v>
+      </c>
+      <c r="P358">
+        <v>8.781101753053374</v>
+      </c>
+      <c r="Q358">
+        <v>15.92170594152391</v>
+      </c>
+      <c r="R358">
+        <v>7.543637653838553</v>
+      </c>
+      <c r="S358">
+        <v>1.560784721943084</v>
+      </c>
+      <c r="T358">
+        <v>8.319616138688819</v>
+      </c>
+      <c r="U358">
+        <v>0.1827358057531412</v>
+      </c>
+      <c r="V358">
+        <v>0.213653106756777</v>
+      </c>
+      <c r="W358">
+        <v>33.90903320589029</v>
+      </c>
+      <c r="X358">
+        <v>7.569068189835174</v>
+      </c>
+      <c r="Y358">
+        <v>34.6313477319582</v>
+      </c>
+      <c r="Z358">
+        <v>30.47275097458198</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="B359">
+        <v>2023</v>
+      </c>
+      <c r="C359">
+        <v>46.9330841321377</v>
+      </c>
+      <c r="D359">
+        <v>36.11035063065635</v>
+      </c>
+      <c r="E359">
+        <v>12.89394526330849</v>
+      </c>
+      <c r="F359">
+        <v>3.585968396831181</v>
+      </c>
+      <c r="G359">
+        <v>0.4766515770659589</v>
+      </c>
+      <c r="H359">
+        <v>71.17140895589978</v>
+      </c>
+      <c r="I359">
+        <v>22.34915495880646</v>
+      </c>
+      <c r="J359">
+        <v>5.972685867661869</v>
+      </c>
+      <c r="K359">
+        <v>0.5067502176314856</v>
+      </c>
+      <c r="L359">
+        <v>21.92390803384112</v>
+      </c>
+      <c r="M359">
+        <v>2.377926991474351</v>
+      </c>
+      <c r="N359">
+        <v>1.776267968821086</v>
+      </c>
+      <c r="O359">
+        <v>1.114640364842478</v>
+      </c>
+      <c r="P359">
+        <v>12.06452077189111</v>
+      </c>
+      <c r="R359">
+        <v>8.701421215700075</v>
+      </c>
+      <c r="S359">
+        <v>4.130378990792367</v>
+      </c>
+      <c r="T359">
+        <v>15.94648174231054</v>
+      </c>
+      <c r="U359">
+        <v>0</v>
+      </c>
+      <c r="V359">
+        <v>0</v>
+      </c>
+      <c r="W359">
+        <v>39.03846093171504</v>
+      </c>
+      <c r="X359">
+        <v>18.22144017813346</v>
+      </c>
+      <c r="Y359">
+        <v>15.55360206078816</v>
+      </c>
+      <c r="Z359">
+        <v>31.72549280619702</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B360">
+        <v>2023</v>
+      </c>
+      <c r="C360">
+        <v>61.59650732724599</v>
+      </c>
+      <c r="D360">
+        <v>28.07583745421612</v>
+      </c>
+      <c r="E360">
+        <v>8.53265568278122</v>
+      </c>
+      <c r="F360">
+        <v>1.397943967810161</v>
+      </c>
+      <c r="G360">
+        <v>0.3970555679455906</v>
+      </c>
+      <c r="H360">
+        <v>72.79517569895417</v>
+      </c>
+      <c r="I360">
+        <v>22.90334564652064</v>
+      </c>
+      <c r="J360">
+        <v>3.818608509078682</v>
+      </c>
+      <c r="K360">
+        <v>0.4828701454456964</v>
+      </c>
+      <c r="L360">
+        <v>18.73519346321614</v>
+      </c>
+      <c r="M360">
+        <v>5.20745098161572</v>
+      </c>
+      <c r="N360">
+        <v>3.175713960927572</v>
+      </c>
+      <c r="O360">
+        <v>3.174536484261218</v>
+      </c>
+      <c r="P360">
+        <v>8.050513127293499</v>
+      </c>
+      <c r="R360">
+        <v>2.608821176893108</v>
+      </c>
+      <c r="S360">
+        <v>5.743236177207018</v>
+      </c>
+      <c r="T360">
+        <v>5.073519304421861</v>
+      </c>
+      <c r="U360">
+        <v>0</v>
+      </c>
+      <c r="V360">
+        <v>0</v>
+      </c>
+      <c r="W360">
+        <v>19.00656922749594</v>
+      </c>
+      <c r="X360">
+        <v>6.175522606581533</v>
+      </c>
+      <c r="Y360">
+        <v>9.676152097098569</v>
+      </c>
+      <c r="Z360">
+        <v>15.09232216351939</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B361">
+        <v>2023</v>
+      </c>
+      <c r="C361">
+        <v>54.61500758199774</v>
+      </c>
+      <c r="D361">
+        <v>35.6572215720889</v>
+      </c>
+      <c r="E361">
+        <v>8.201468825559648</v>
+      </c>
+      <c r="F361">
+        <v>1.443781023482193</v>
+      </c>
+      <c r="G361">
+        <v>0.08252099687115486</v>
+      </c>
+      <c r="H361">
+        <v>60.53751400153937</v>
+      </c>
+      <c r="I361">
+        <v>34.27897135155384</v>
+      </c>
+      <c r="J361">
+        <v>4.677558958338</v>
+      </c>
+      <c r="K361">
+        <v>0.5059556885683572</v>
+      </c>
+      <c r="L361">
+        <v>9.383399184780499</v>
+      </c>
+      <c r="M361">
+        <v>4.18374469671131</v>
+      </c>
+      <c r="N361">
+        <v>0.7438790381116653</v>
+      </c>
+      <c r="O361">
+        <v>3.928776375332835</v>
+      </c>
+      <c r="P361">
+        <v>31.59365420795423</v>
+      </c>
+      <c r="Q361">
+        <v>34.24448441893275</v>
+      </c>
+      <c r="R361">
+        <v>5.712365562117934</v>
+      </c>
+      <c r="S361">
+        <v>27.98196222356433</v>
+      </c>
+      <c r="T361">
+        <v>5.609255821974826</v>
+      </c>
+      <c r="U361">
+        <v>1.503227551150595</v>
+      </c>
+      <c r="V361">
+        <v>1.777619412940048</v>
+      </c>
+      <c r="W361">
+        <v>11.58707113176072</v>
+      </c>
+      <c r="X361">
+        <v>3.101846332066907</v>
+      </c>
+      <c r="Y361">
+        <v>7.495230087942499</v>
+      </c>
+      <c r="Z361">
+        <v>10.13626168962137</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B362">
+        <v>2023</v>
+      </c>
+      <c r="C362">
+        <v>48.39014953668004</v>
+      </c>
+      <c r="D362">
+        <v>36.69345560383513</v>
+      </c>
+      <c r="E362">
+        <v>12.54600301152253</v>
+      </c>
+      <c r="F362">
+        <v>2.1506076797275</v>
+      </c>
+      <c r="G362">
+        <v>0.219784168234334</v>
+      </c>
+      <c r="H362">
+        <v>67.60408930345696</v>
+      </c>
+      <c r="I362">
+        <v>27.85736147690498</v>
+      </c>
+      <c r="J362">
+        <v>4.009962538508451</v>
+      </c>
+      <c r="K362">
+        <v>0.5285866811292895</v>
+      </c>
+      <c r="L362">
+        <v>5.833642403500665</v>
+      </c>
+      <c r="M362">
+        <v>4.09404024703057</v>
+      </c>
+      <c r="N362">
+        <v>1.763104824533953</v>
+      </c>
+      <c r="O362">
+        <v>3.233359988962012</v>
+      </c>
+      <c r="P362">
+        <v>27.54715135571296</v>
+      </c>
+      <c r="Q362">
+        <v>43.99065883724306</v>
+      </c>
+      <c r="R362">
+        <v>22.42683983600178</v>
+      </c>
+      <c r="S362">
+        <v>7.460404691184486</v>
+      </c>
+      <c r="T362">
+        <v>28.2548553741291</v>
+      </c>
+      <c r="U362">
+        <v>0.6060717230189855</v>
+      </c>
+      <c r="V362">
+        <v>0.6814792656637962</v>
+      </c>
+      <c r="W362">
+        <v>31.66053297273193</v>
+      </c>
+      <c r="X362">
+        <v>7.268454201424909</v>
+      </c>
+      <c r="Y362">
+        <v>15.0669660851872</v>
+      </c>
+      <c r="Z362">
+        <v>28.60763153706044</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B363">
+        <v>2023</v>
+      </c>
+      <c r="C363">
+        <v>41.63840423793631</v>
+      </c>
+      <c r="D363">
+        <v>38.00539390912356</v>
+      </c>
+      <c r="E363">
+        <v>14.84746320849063</v>
+      </c>
+      <c r="F363">
+        <v>4.693721215970492</v>
+      </c>
+      <c r="G363">
+        <v>0.8150174284785868</v>
+      </c>
+      <c r="H363">
+        <v>51.64182859203832</v>
+      </c>
+      <c r="I363">
+        <v>36.08413748441283</v>
+      </c>
+      <c r="J363">
+        <v>10.3704912927589</v>
+      </c>
+      <c r="K363">
+        <v>1.903542630789611</v>
+      </c>
+      <c r="L363">
+        <v>12.05914285003962</v>
+      </c>
+      <c r="M363">
+        <v>13.86154350909137</v>
+      </c>
+      <c r="N363">
+        <v>0.4523487133893138</v>
+      </c>
+      <c r="O363">
+        <v>13.57260351739918</v>
+      </c>
+      <c r="P363">
+        <v>36.61506160316837</v>
+      </c>
+      <c r="Q363">
+        <v>47.70459767167893</v>
+      </c>
+      <c r="R363">
+        <v>13.36168255103548</v>
+      </c>
+      <c r="S363">
+        <v>27.1373906780293</v>
+      </c>
+      <c r="T363">
+        <v>8.311821982550253</v>
+      </c>
+      <c r="U363">
+        <v>16.75691747697891</v>
+      </c>
+      <c r="V363">
+        <v>15.48894243433726</v>
+      </c>
+      <c r="W363">
+        <v>22.50580572563126</v>
+      </c>
+      <c r="X363">
+        <v>6.045206374103808</v>
+      </c>
+      <c r="Y363">
+        <v>11.46995095246296</v>
+      </c>
+      <c r="Z363">
+        <v>19.29022964897354</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B364">
+        <v>2023</v>
+      </c>
+      <c r="C364">
+        <v>54.46460077040533</v>
+      </c>
+      <c r="D364">
+        <v>31.1281053699711</v>
+      </c>
+      <c r="E364">
+        <v>11.3288758929939</v>
+      </c>
+      <c r="F364">
+        <v>2.752074759451104</v>
+      </c>
+      <c r="G364">
+        <v>0.3263432071785193</v>
+      </c>
+      <c r="H364">
+        <v>63.30321269570584</v>
+      </c>
+      <c r="I364">
+        <v>28.70002401071007</v>
+      </c>
+      <c r="J364">
+        <v>7.051140810111654</v>
+      </c>
+      <c r="K364">
+        <v>0.945622483472933</v>
+      </c>
+      <c r="L364">
+        <v>20.38040000042645</v>
+      </c>
+      <c r="M364">
+        <v>4.694412540042917</v>
+      </c>
+      <c r="N364">
+        <v>3.087173599548114</v>
+      </c>
+      <c r="O364">
+        <v>3.152235385056702</v>
+      </c>
+      <c r="P364">
+        <v>21.01862000871971</v>
+      </c>
+      <c r="R364">
+        <v>6.238771417841486</v>
+      </c>
+      <c r="S364">
+        <v>15.85483396790286</v>
+      </c>
+      <c r="T364">
+        <v>4.473114106577182</v>
+      </c>
+      <c r="U364">
+        <v>0</v>
+      </c>
+      <c r="V364">
+        <v>0</v>
+      </c>
+      <c r="W364">
+        <v>19.14257709997992</v>
+      </c>
+      <c r="X364">
+        <v>9.684244995561821</v>
+      </c>
+      <c r="Y364">
+        <v>5.195868202151185</v>
+      </c>
+      <c r="Z364">
+        <v>12.10484543001923</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B365">
+        <v>2023</v>
+      </c>
+      <c r="C365">
+        <v>64.40911371617392</v>
+      </c>
+      <c r="D365">
+        <v>27.60076080723439</v>
+      </c>
+      <c r="E365">
+        <v>6.858759534293263</v>
+      </c>
+      <c r="F365">
+        <v>0.9406465202030428</v>
+      </c>
+      <c r="G365">
+        <v>0.1907194220955408</v>
+      </c>
+      <c r="H365">
+        <v>79.19463073289054</v>
+      </c>
+      <c r="I365">
+        <v>17.19543192921171</v>
+      </c>
+      <c r="J365">
+        <v>3.273517665371961</v>
+      </c>
+      <c r="K365">
+        <v>0.3364196725256248</v>
+      </c>
+      <c r="L365">
+        <v>6.291472748719428</v>
+      </c>
+      <c r="M365">
+        <v>6.435411541077202</v>
+      </c>
+      <c r="N365">
+        <v>1.479228298412545</v>
+      </c>
+      <c r="O365">
+        <v>6.072506002359149</v>
+      </c>
+      <c r="P365">
+        <v>12.02484198773592</v>
+      </c>
+      <c r="Q365">
+        <v>26.74100100420783</v>
+      </c>
+      <c r="R365">
+        <v>4.443393486870345</v>
+      </c>
+      <c r="S365">
+        <v>8.385963264252545</v>
+      </c>
+      <c r="T365">
+        <v>18.86923250072225</v>
+      </c>
+      <c r="U365">
+        <v>0.5919975035571031</v>
+      </c>
+      <c r="V365">
+        <v>0.6231998731804363</v>
+      </c>
+      <c r="W365">
+        <v>20.1513708472797</v>
+      </c>
+      <c r="X365">
+        <v>7.003592096682631</v>
+      </c>
+      <c r="Y365">
+        <v>15.85156240791344</v>
+      </c>
+      <c r="Z365">
+        <v>15.19600010981735</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B366">
+        <v>2023</v>
+      </c>
+      <c r="C366">
+        <v>60.82607811226116</v>
+      </c>
+      <c r="D366">
+        <v>29.1426853609199</v>
+      </c>
+      <c r="E366">
+        <v>7.858546601155666</v>
+      </c>
+      <c r="F366">
+        <v>1.835348672881828</v>
+      </c>
+      <c r="G366">
+        <v>0.3373412527814603</v>
+      </c>
+      <c r="H366">
+        <v>65.3325394150057</v>
+      </c>
+      <c r="I366">
+        <v>27.86378093737991</v>
+      </c>
+      <c r="J366">
+        <v>6.078146574026923</v>
+      </c>
+      <c r="K366">
+        <v>0.7255330735875645</v>
+      </c>
+      <c r="L366">
+        <v>8.369862571681487</v>
+      </c>
+      <c r="M366">
+        <v>6.606059544341142</v>
+      </c>
+      <c r="N366">
+        <v>2.10826678133763</v>
+      </c>
+      <c r="O366">
+        <v>5.812915569148544</v>
+      </c>
+      <c r="P366">
+        <v>27.22075119017383</v>
+      </c>
+      <c r="R366">
+        <v>7.024611342233721</v>
+      </c>
+      <c r="S366">
+        <v>23.02094771493673</v>
+      </c>
+      <c r="T366">
+        <v>4.700900705978996</v>
+      </c>
+      <c r="U366">
+        <v>0</v>
+      </c>
+      <c r="V366">
+        <v>0</v>
+      </c>
+      <c r="W366">
+        <v>9.518516286806154</v>
+      </c>
+      <c r="X366">
+        <v>3.234805208533523</v>
+      </c>
+      <c r="Y366">
+        <v>5.0944255060078</v>
+      </c>
+      <c r="Z366">
+        <v>7.972167451132004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
